--- a/clustering.xlsx
+++ b/clustering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCM\Redes Sociales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F4BB06-1F3B-4189-86B1-F30FC6902841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F5509C-9AF5-48C1-99F2-707820D742CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{447DC540-76D4-4C2A-96D6-9E8A79373C2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{447DC540-76D4-4C2A-96D6-9E8A79373C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="SeleccionClusters" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">AsumiendoRed!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ImportanciaIntraCluster!$A$1:$N$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ImportanciaIntraCluster!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="19" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
   <si>
     <t>CLUSTERING</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Modularidad</t>
   </si>
   <si>
-    <t>0.569058</t>
-  </si>
-  <si>
     <t>Clusters</t>
   </si>
   <si>
@@ -111,18 +108,6 @@
     <t>Label</t>
   </si>
   <si>
-    <t>All Degree of N1 (75)</t>
-  </si>
-  <si>
-    <t>Weighted All Degree of N1 (75)</t>
-  </si>
-  <si>
-    <t>All closeness centrality in N1 (75)</t>
-  </si>
-  <si>
-    <t>Betweenness centrality in N1 (75)</t>
-  </si>
-  <si>
     <t>Hub&amp;Authority</t>
   </si>
   <si>
@@ -204,9 +189,6 @@
     <t>Porcentajes de arcos salientes</t>
   </si>
   <si>
-    <t>Suma de Weighted All Degree of N1 (75)</t>
-  </si>
-  <si>
     <t>All Degree of N3 (5)</t>
   </si>
   <si>
@@ -261,12 +243,6 @@
     <t>25 % Closeness</t>
   </si>
   <si>
-    <t>4 % Betweenness</t>
-  </si>
-  <si>
-    <t>1 % Hub and Authority</t>
-  </si>
-  <si>
     <t>Agregación Asumiendo Red</t>
   </si>
   <si>
@@ -286,9 +262,6 @@
   </si>
   <si>
     <t>Porcentaje de arcos externos sobre el total</t>
-  </si>
-  <si>
-    <t>Suma de OrdenB</t>
   </si>
   <si>
     <t>NO OBSTANTE</t>
@@ -452,11 +425,56 @@
       <t xml:space="preserve"> 5 primeros nodos</t>
     </r>
   </si>
+  <si>
+    <t>3 % Betweenness</t>
+  </si>
+  <si>
+    <t>2 % Hub and Authority</t>
+  </si>
+  <si>
+    <t>0.567341</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Weighted</t>
+  </si>
+  <si>
+    <t>Closeness</t>
+  </si>
+  <si>
+    <t>Betweenness</t>
+  </si>
+  <si>
+    <t>H&amp;A</t>
+  </si>
+  <si>
+    <t>PorcentajeD</t>
+  </si>
+  <si>
+    <t>PorcentajeW</t>
+  </si>
+  <si>
+    <t>PorcentajeC</t>
+  </si>
+  <si>
+    <t>PorcentajeB</t>
+  </si>
+  <si>
+    <t>PorcentajeH&amp;A</t>
+  </si>
+  <si>
+    <t>Suma de PorcentajeB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,18 +530,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -589,17 +601,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -607,6 +614,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -628,21 +639,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -668,7 +676,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alberto Fernández" refreshedDate="44256.70219895833" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="76" xr:uid="{BBD7933A-5957-4CEE-A375-DD208D35FD2A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alberto Fernández" refreshedDate="44257.981258217595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="76" xr:uid="{BBD7933A-5957-4CEE-A375-DD208D35FD2A}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N1048576" sheet="ImportanciaIntraCluster"/>
   </cacheSource>
@@ -679,38 +687,38 @@
     <cacheField name="Label" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="77"/>
     </cacheField>
-    <cacheField name="All Degree of N1 (75)" numFmtId="0">
+    <cacheField name="Degree" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="36"/>
     </cacheField>
-    <cacheField name="Weighted All Degree of N1 (75)" numFmtId="0">
+    <cacheField name="Weighted" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1" maxValue="87"/>
     </cacheField>
-    <cacheField name="All closeness centrality in N1 (75)" numFmtId="0">
+    <cacheField name="Closeness" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.25783972100000002" maxValue="0.64912280700000002"/>
     </cacheField>
-    <cacheField name="Betweenness centrality in N1 (75)" numFmtId="0">
+    <cacheField name="Betweenness" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.57493973899999995"/>
     </cacheField>
-    <cacheField name="Hub&amp;Authority" numFmtId="0">
+    <cacheField name="H&amp;A" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5.4018969000000001E-4" maxValue="0.35880012700000002"/>
     </cacheField>
-    <cacheField name="OrdenCD" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.20080321285140559" maxValue="7.2289156626506017"/>
+    <cacheField name="PorcentajeD" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="2.008032128514056E-3" maxValue="7.2289156626506021E-2"/>
     </cacheField>
-    <cacheField name="OrdenWD" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="7.9744816586921854E-2" maxValue="6.937799043062201"/>
+    <cacheField name="PorcentajeW" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="7.9744816586921851E-4" maxValue="6.9377990430622011E-2"/>
     </cacheField>
-    <cacheField name="OrdenC" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.87634079156097866" maxValue="2.2062263808711782"/>
+    <cacheField name="PorcentajeC" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="8.7634081270826225E-3" maxValue="2.2062264341103924E-2"/>
     </cacheField>
-    <cacheField name="OrdenHA" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.1555774881684073E-2" maxValue="7.6754769146587298"/>
+    <cacheField name="PorcentajeB" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.34509160792627719"/>
     </cacheField>
-    <cacheField name="OrdenB" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="34.509160783928181"/>
+    <cacheField name="PorcentajeH&amp;A" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.1555774880818866E-4" maxValue="7.6754769140840493E-2"/>
     </cacheField>
     <cacheField name="Agregacion" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.31739256594247611" maxValue="6.9279442845646759"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3.1750812897809659E-3" maxValue="6.6205238012808157E-2"/>
     </cacheField>
     <cacheField name="Particion" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="6">
@@ -741,12 +749,12 @@
     <n v="0.43274853800000002"/>
     <n v="0.18141429100000001"/>
     <n v="2.567322E-2"/>
-    <n v="2.0080321285140563"/>
-    <n v="1.7543859649122806"/>
-    <n v="1.4708175872474523"/>
-    <n v="0.5492032822913544"/>
-    <n v="10.8888888903561"/>
-    <n v="2.1255983179482385"/>
+    <n v="2.0080321285140562E-2"/>
+    <n v="1.7543859649122806E-2"/>
+    <n v="1.4708176227402616E-2"/>
+    <n v="0.1088888889310112"/>
+    <n v="5.4920328225023423E-3"/>
+    <n v="2.0222014708223216E-2"/>
     <x v="0"/>
   </r>
   <r>
@@ -757,12 +765,12 @@
     <n v="0.30327868899999999"/>
     <n v="0"/>
     <n v="6.9085760999999996E-4"/>
-    <n v="0.20080321285140559"/>
-    <n v="7.9744816586921854E-2"/>
-    <n v="1.0307779009031577"/>
-    <n v="1.4778873355502754E-2"/>
-    <n v="0"/>
-    <n v="0.35603407426275907"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="7.9744816586921851E-4"/>
+    <n v="1.0307779257772168E-2"/>
+    <n v="0"/>
+    <n v="1.4778873354396224E-4"/>
+    <n v="3.5618186921480676E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -773,12 +781,12 @@
     <n v="0.41573033700000001"/>
     <n v="0"/>
     <n v="1.7016287000000001E-2"/>
-    <n v="0.60240963855421692"/>
-    <n v="0.91706539074960136"/>
-    <n v="1.4129764459467917"/>
-    <n v="0.36401357807130169"/>
-    <n v="0"/>
-    <n v="0.8887005075237473"/>
+    <n v="6.024096385542169E-3"/>
+    <n v="9.1706539074960132E-3"/>
+    <n v="1.4129764800438167E-2"/>
+    <n v="0"/>
+    <n v="3.6401357804404719E-3"/>
+    <n v="8.9234065182817145E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -789,12 +797,12 @@
     <n v="0.41573033700000001"/>
     <n v="0"/>
     <n v="1.7016287000000001E-2"/>
-    <n v="0.60240963855421692"/>
-    <n v="0.91706539074960136"/>
-    <n v="1.4129764459467917"/>
-    <n v="0.36401357807130169"/>
-    <n v="0"/>
-    <n v="0.8887005075237473"/>
+    <n v="6.024096385542169E-3"/>
+    <n v="9.1706539074960132E-3"/>
+    <n v="1.4129764800438167E-2"/>
+    <n v="0"/>
+    <n v="3.6401357804404719E-3"/>
+    <n v="8.9234065182817145E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -805,12 +813,12 @@
     <n v="0.30327868899999999"/>
     <n v="0"/>
     <n v="6.9085760999999996E-4"/>
-    <n v="0.20080321285140559"/>
-    <n v="7.9744816586921854E-2"/>
-    <n v="1.0307779009031577"/>
-    <n v="1.4778873355502754E-2"/>
-    <n v="0"/>
-    <n v="0.35603407426275907"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="7.9744816586921851E-4"/>
+    <n v="1.0307779257772168E-2"/>
+    <n v="0"/>
+    <n v="1.4778873354396224E-4"/>
+    <n v="3.5618186921480676E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -821,12 +829,12 @@
     <n v="0.30327868899999999"/>
     <n v="0"/>
     <n v="6.9085760999999996E-4"/>
-    <n v="0.20080321285140559"/>
-    <n v="7.9744816586921854E-2"/>
-    <n v="1.0307779009031577"/>
-    <n v="1.4778873355502754E-2"/>
-    <n v="0"/>
-    <n v="0.35603407426275907"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="7.9744816586921851E-4"/>
+    <n v="1.0307779257772168E-2"/>
+    <n v="0"/>
+    <n v="1.4778873354396224E-4"/>
+    <n v="3.5618186921480676E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -837,12 +845,12 @@
     <n v="0.30327868899999999"/>
     <n v="0"/>
     <n v="6.9085760999999996E-4"/>
-    <n v="0.20080321285140559"/>
-    <n v="7.9744816586921854E-2"/>
-    <n v="1.0307779009031577"/>
-    <n v="1.4778873355502754E-2"/>
-    <n v="0"/>
-    <n v="0.35603407426275907"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="7.9744816586921851E-4"/>
+    <n v="1.0307779257772168E-2"/>
+    <n v="0"/>
+    <n v="1.4778873354396224E-4"/>
+    <n v="3.5618186921480676E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -853,12 +861,12 @@
     <n v="0.30327868899999999"/>
     <n v="0"/>
     <n v="6.9085760999999996E-4"/>
-    <n v="0.20080321285140559"/>
-    <n v="7.9744816586921854E-2"/>
-    <n v="1.0307779009031577"/>
-    <n v="1.4778873355502754E-2"/>
-    <n v="0"/>
-    <n v="0.35603407426275907"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="7.9744816586921851E-4"/>
+    <n v="1.0307779257772168E-2"/>
+    <n v="0"/>
+    <n v="1.4778873354396224E-4"/>
+    <n v="3.5618186921480676E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -869,12 +877,12 @@
     <n v="0.30327868899999999"/>
     <n v="0"/>
     <n v="1.7271439999999999E-3"/>
-    <n v="0.20080321285140559"/>
-    <n v="0.1993620414673046"/>
-    <n v="1.0307779009031577"/>
-    <n v="3.6947182853955166E-2"/>
-    <n v="0"/>
-    <n v="0.3981217860658775"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="1.9936204146730461E-3"/>
+    <n v="1.0307779257772168E-2"/>
+    <n v="0"/>
+    <n v="3.6947182851188845E-4"/>
+    <n v="3.9849126411287648E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -885,12 +893,12 @@
     <n v="0.30327868899999999"/>
     <n v="0"/>
     <n v="6.9085760999999996E-4"/>
-    <n v="0.20080321285140559"/>
-    <n v="7.9744816586921854E-2"/>
-    <n v="1.0307779009031577"/>
-    <n v="1.4778873355502754E-2"/>
-    <n v="0"/>
-    <n v="0.35603407426275907"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="7.9744816586921851E-4"/>
+    <n v="1.0307779257772168E-2"/>
+    <n v="0"/>
+    <n v="1.4778873354396224E-4"/>
+    <n v="3.5618186921480676E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -901,12 +909,12 @@
     <n v="0.39572192499999997"/>
     <n v="0"/>
     <n v="4.7387469999999998E-3"/>
-    <n v="0.20080321285140559"/>
-    <n v="7.9744816586921854E-2"/>
-    <n v="1.3449722317708146"/>
-    <n v="0.10137160069318568"/>
-    <n v="0"/>
-    <n v="0.43544858425305011"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="7.9744816586921851E-4"/>
+    <n v="1.3449722642268061E-2"/>
+    <n v="0"/>
+    <n v="1.0137160068559577E-3"/>
+    <n v="4.36462308373828E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -917,12 +925,12 @@
     <n v="0.64912280700000002"/>
     <n v="0.57493973899999995"/>
     <n v="0.17609849599999999"/>
-    <n v="7.2289156626506017"/>
-    <n v="6.937799043062201"/>
-    <n v="2.2062263808711782"/>
-    <n v="3.7671110990273498"/>
-    <n v="34.509160783928181"/>
-    <n v="6.9279442845646759"/>
+    <n v="7.2289156626506021E-2"/>
+    <n v="6.9377990430622011E-2"/>
+    <n v="2.2062264341103924E-2"/>
+    <n v="0.34509160792627719"/>
+    <n v="3.7671110987452974E-2"/>
+    <n v="6.6205238012808157E-2"/>
     <x v="0"/>
   </r>
   <r>
@@ -933,12 +941,12 @@
     <n v="0.41573033700000001"/>
     <n v="0"/>
     <n v="8.199787E-3"/>
-    <n v="0.40160642570281119"/>
-    <n v="0.27910685805422647"/>
-    <n v="1.4129764459467917"/>
-    <n v="0.17541040564798563"/>
-    <n v="0"/>
-    <n v="0.59324786485814096"/>
+    <n v="4.0160642570281121E-3"/>
+    <n v="2.7910685805422647E-3"/>
+    <n v="1.4129764800438167E-2"/>
+    <n v="0"/>
+    <n v="1.7541040563485225E-3"/>
+    <n v="5.9500197743861437E-3"/>
     <x v="1"/>
   </r>
   <r>
@@ -949,12 +957,12 @@
     <n v="0.39572192499999997"/>
     <n v="0"/>
     <n v="4.7387469999999998E-3"/>
-    <n v="0.20080321285140559"/>
-    <n v="7.9744816586921854E-2"/>
-    <n v="1.3449722317708146"/>
-    <n v="0.10137160069318568"/>
-    <n v="0"/>
-    <n v="0.43544858425305011"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="7.9744816586921851E-4"/>
+    <n v="1.3449722642268061E-2"/>
+    <n v="0"/>
+    <n v="1.0137160068559577E-3"/>
+    <n v="4.36462308373828E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -965,12 +973,12 @@
     <n v="0.39572192499999997"/>
     <n v="0"/>
     <n v="4.7387469999999998E-3"/>
-    <n v="0.20080321285140559"/>
-    <n v="7.9744816586921854E-2"/>
-    <n v="1.3449722317708146"/>
-    <n v="0.10137160069318568"/>
-    <n v="0"/>
-    <n v="0.43544858425305011"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="7.9744816586921851E-4"/>
+    <n v="1.3449722642268061E-2"/>
+    <n v="0"/>
+    <n v="1.0137160068559577E-3"/>
+    <n v="4.36462308373828E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -981,12 +989,12 @@
     <n v="0.39572192499999997"/>
     <n v="0"/>
     <n v="4.7387469999999998E-3"/>
-    <n v="0.20080321285140559"/>
-    <n v="7.9744816586921854E-2"/>
-    <n v="1.3449722317708146"/>
-    <n v="0.10137160069318568"/>
-    <n v="0"/>
-    <n v="0.43544858425305011"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="7.9744816586921851E-4"/>
+    <n v="1.3449722642268061E-2"/>
+    <n v="0"/>
+    <n v="1.0137160068559577E-3"/>
+    <n v="4.36462308373828E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -997,12 +1005,12 @@
     <n v="0.39153439200000001"/>
     <n v="3.9044913000000001E-2"/>
     <n v="2.0512415999999999E-2"/>
-    <n v="1.8072289156626504"/>
-    <n v="2.0334928229665072"/>
-    <n v="1.330739723413781"/>
-    <n v="0.43880300931966043"/>
-    <n v="2.3435624450921586"/>
-    <n v="1.7750680672705332"/>
+    <n v="1.8072289156626505E-2"/>
+    <n v="2.033492822966507E-2"/>
+    <n v="1.330739755526323E-2"/>
+    <n v="2.3435624456829562E-2"/>
+    <n v="4.3880300928680624E-3"/>
+    <n v="1.7560204809580104E-2"/>
     <x v="1"/>
   </r>
   <r>
@@ -1013,12 +1021,12 @@
     <n v="0.342592593"/>
     <n v="0"/>
     <n v="1.1536566999999999E-2"/>
-    <n v="1.4056224899598393"/>
-    <n v="1.8740031897926632"/>
-    <n v="1.1643972579870585"/>
-    <n v="0.24679103216402629"/>
-    <n v="0"/>
-    <n v="1.4414362127317808"/>
+    <n v="1.4056224899598393E-2"/>
+    <n v="1.8740031897926633E-2"/>
+    <n v="1.1643972860855327E-2"/>
+    <n v="0"/>
+    <n v="2.4679103214554849E-3"/>
+    <n v="1.44390413007767E-2"/>
     <x v="1"/>
   </r>
   <r>
@@ -1029,12 +1037,12 @@
     <n v="0.342592593"/>
     <n v="0"/>
     <n v="1.1536566999999999E-2"/>
-    <n v="1.4056224899598393"/>
-    <n v="1.8740031897926632"/>
-    <n v="1.1643972579870585"/>
-    <n v="0.24679103216402629"/>
-    <n v="0"/>
-    <n v="1.4414362127317808"/>
+    <n v="1.4056224899598393E-2"/>
+    <n v="1.8740031897926633E-2"/>
+    <n v="1.1643972860855327E-2"/>
+    <n v="0"/>
+    <n v="2.4679103214554849E-3"/>
+    <n v="1.44390413007767E-2"/>
     <x v="1"/>
   </r>
   <r>
@@ -1045,12 +1053,12 @@
     <n v="0.342592593"/>
     <n v="0"/>
     <n v="1.2201590999999999E-2"/>
-    <n v="1.4056224899598393"/>
-    <n v="2.0334928229665072"/>
-    <n v="1.1643972579870585"/>
-    <n v="0.26101727116336199"/>
-    <n v="0"/>
-    <n v="1.4973998467326195"/>
+    <n v="1.4056224899598393E-2"/>
+    <n v="2.033492822966507E-2"/>
+    <n v="1.1643972860855327E-2"/>
+    <n v="0"/>
+    <n v="2.6101727114381905E-3"/>
+    <n v="1.5000100264684808E-2"/>
     <x v="1"/>
   </r>
   <r>
@@ -1061,12 +1069,12 @@
     <n v="0.342592593"/>
     <n v="0"/>
     <n v="1.3852768E-2"/>
-    <n v="1.4056224899598393"/>
-    <n v="2.0334928229665072"/>
-    <n v="1.1643972579870585"/>
-    <n v="0.29633936274532918"/>
-    <n v="0"/>
-    <n v="1.4977530676484392"/>
+    <n v="1.4056224899598393E-2"/>
+    <n v="2.033492822966507E-2"/>
+    <n v="1.1643972860855327E-2"/>
+    <n v="0"/>
+    <n v="2.963393627231416E-3"/>
+    <n v="1.5007164683000672E-2"/>
     <x v="1"/>
   </r>
   <r>
@@ -1077,12 +1085,12 @@
     <n v="0.342592593"/>
     <n v="0"/>
     <n v="1.3267011E-2"/>
-    <n v="1.4056224899598393"/>
-    <n v="1.8740031897926632"/>
-    <n v="1.1643972579870585"/>
-    <n v="0.283808808844216"/>
-    <n v="0"/>
-    <n v="1.4418063904985827"/>
+    <n v="1.4056224899598393E-2"/>
+    <n v="1.8740031897926633E-2"/>
+    <n v="1.1643972860855327E-2"/>
+    <n v="0"/>
+    <n v="2.8380880882296661E-3"/>
+    <n v="1.4446444856112184E-2"/>
     <x v="1"/>
   </r>
   <r>
@@ -1093,12 +1101,12 @@
     <n v="0.342592593"/>
     <n v="0"/>
     <n v="1.3267011E-2"/>
-    <n v="1.4056224899598393"/>
-    <n v="1.8740031897926632"/>
-    <n v="1.1643972579870585"/>
-    <n v="0.283808808844216"/>
-    <n v="0"/>
-    <n v="1.4418063904985827"/>
+    <n v="1.4056224899598393E-2"/>
+    <n v="1.8740031897926633E-2"/>
+    <n v="1.1643972860855327E-2"/>
+    <n v="0"/>
+    <n v="2.8380880882296661E-3"/>
+    <n v="1.4446444856112184E-2"/>
     <x v="1"/>
   </r>
   <r>
@@ -1109,12 +1117,12 @@
     <n v="0.46540880499999998"/>
     <n v="0.135623945"/>
     <n v="5.1446655000000001E-2"/>
-    <n v="3.0120481927710845"/>
-    <n v="3.4290271132376398"/>
-    <n v="1.5818226881076602"/>
-    <n v="1.1005503707330409"/>
-    <n v="8.1404505666908378"/>
-    <n v="2.9864555555049326"/>
+    <n v="3.0120481927710843E-2"/>
+    <n v="3.4290271132376399E-2"/>
+    <n v="1.5818227262791723E-2"/>
+    <n v="8.1404505687429948E-2"/>
+    <n v="1.10055037065064E-2"/>
+    <n v="2.9160565631481491E-2"/>
     <x v="1"/>
   </r>
   <r>
@@ -1125,12 +1133,12 @@
     <n v="0.46250000000000002"/>
     <n v="3.0213585000000001E-2"/>
     <n v="5.7555648000000001E-2"/>
-    <n v="2.2088353413654618"/>
-    <n v="1.9537480063795853"/>
-    <n v="1.5719362964131993"/>
-    <n v="1.231234367796709"/>
-    <n v="1.813486513277665"/>
-    <n v="1.93474005002314"/>
+    <n v="2.2088353413654619E-2"/>
+    <n v="1.9537480063795853E-2"/>
+    <n v="1.5719363343461395E-2"/>
+    <n v="1.8134865137348334E-2"/>
+    <n v="1.2312343677045237E-2"/>
+    <n v="1.9289175380634366E-2"/>
     <x v="2"/>
   </r>
   <r>
@@ -1141,12 +1149,12 @@
     <n v="0.52112676099999999"/>
     <n v="7.7198417000000005E-2"/>
     <n v="9.7463264999999993E-2"/>
-    <n v="3.2128514056224895"/>
-    <n v="3.4290271132376398"/>
-    <n v="1.7711958284284248"/>
-    <n v="2.0849408465643213"/>
-    <n v="4.6336205410872369"/>
-    <n v="2.9736506688172839"/>
+    <n v="3.2128514056224897E-2"/>
+    <n v="3.4290271132376399E-2"/>
+    <n v="1.7711958711697656E-2"/>
+    <n v="4.6336205422553435E-2"/>
+    <n v="2.0849408464082175E-2"/>
+    <n v="2.9481638825893115E-2"/>
     <x v="2"/>
   </r>
   <r>
@@ -1157,12 +1165,12 @@
     <n v="0.47435897399999999"/>
     <n v="1.5816113E-2"/>
     <n v="7.9378487999999997E-2"/>
-    <n v="2.0080321285140563"/>
-    <n v="1.9936204146730463"/>
-    <n v="1.6122423540755135"/>
-    <n v="1.6980700571616991"/>
-    <n v="0.9493182493231288"/>
-    <n v="1.8585924091789061"/>
+    <n v="2.0080321285140562E-2"/>
+    <n v="1.9936204146730464E-2"/>
+    <n v="1.6122423929810933E-2"/>
+    <n v="9.4931824956244609E-3"/>
+    <n v="1.6980700570345609E-2"/>
+    <n v="1.8660799369883237E-2"/>
     <x v="3"/>
   </r>
   <r>
@@ -1173,12 +1181,12 @@
     <n v="0.52112676099999999"/>
     <n v="5.6719919000000001E-2"/>
     <n v="0.10404250299999999"/>
-    <n v="3.4136546184738958"/>
-    <n v="2.5917065390749601"/>
-    <n v="1.7711958284284248"/>
-    <n v="2.2256843569060711"/>
-    <n v="3.4044555831657046"/>
-    <n v="2.7031104291448944"/>
+    <n v="3.4136546184738957E-2"/>
+    <n v="2.5917065390749602E-2"/>
+    <n v="1.7711958711697656E-2"/>
+    <n v="3.4044555840239465E-2"/>
+    <n v="2.225684356739429E-2"/>
+    <n v="2.6913227275900477E-2"/>
     <x v="2"/>
   </r>
   <r>
@@ -1189,12 +1197,12 @@
     <n v="0.40437158499999998"/>
     <n v="2.7212144000000001E-2"/>
     <n v="2.4666170000000001E-2"/>
-    <n v="0.80321285140562237"/>
-    <n v="0.83732057416267947"/>
-    <n v="1.3743705334046166"/>
-    <n v="0.52766039965210965"/>
-    <n v="1.6333333545611926"/>
-    <n v="0.98838927047902858"/>
+    <n v="8.0321285140562242E-3"/>
+    <n v="8.3732057416267946E-3"/>
+    <n v="1.3743705665700287E-2"/>
+    <n v="1.6333333549729458E-2"/>
+    <n v="5.2766039961260258E-3"/>
+    <n v="9.7733254923285332E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -1205,12 +1213,12 @@
     <n v="0.43023255799999999"/>
     <n v="8.4845119999999996E-3"/>
     <n v="1.9807834999999999E-2"/>
-    <n v="1.6064257028112447"/>
-    <n v="0.99681020733652315"/>
-    <n v="1.4622663217705878"/>
-    <n v="0.42373056426445799"/>
-    <n v="0.50925926478908434"/>
-    <n v="1.3013068252285735"/>
+    <n v="1.6064257028112448E-2"/>
+    <n v="9.9681020733652318E-3"/>
+    <n v="1.4622663570570437E-2"/>
+    <n v="5.0925926491746541E-3"/>
+    <n v="4.2373056423273235E-3"/>
+    <n v="1.3004515470481584E-2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1221,12 +1229,12 @@
     <n v="0.32034632000000002"/>
     <n v="0"/>
     <n v="2.6144269999999999E-3"/>
-    <n v="0.40160642570281119"/>
-    <n v="0.27910685805422647"/>
-    <n v="1.0887870439576164"/>
-    <n v="5.59280016184623E-2"/>
-    <n v="0"/>
-    <n v="0.51100569032055199"/>
+    <n v="4.0160642570281121E-3"/>
+    <n v="2.7910685805422647E-3"/>
+    <n v="1.0887870702315143E-2"/>
+    <n v="0"/>
+    <n v="5.5928001614274838E-4"/>
+    <n v="5.1156497690512731E-3"/>
     <x v="1"/>
   </r>
   <r>
@@ -1237,12 +1245,12 @@
     <n v="0.42045454500000001"/>
     <n v="8.8084070000000007E-3"/>
     <n v="1.8283536999999999E-2"/>
-    <n v="0.80321285140562237"/>
-    <n v="0.67783094098883578"/>
-    <n v="1.4290329951943717"/>
-    <n v="0.39112267694879804"/>
-    <n v="0.52870016245872764"/>
-    <n v="0.9006828094044903"/>
+    <n v="8.0321285140562242E-3"/>
+    <n v="6.7783094098883574E-3"/>
+    <n v="1.4290330296788625E-2"/>
+    <n v="5.2870016259200965E-3"/>
+    <n v="3.9112267691951384E-3"/>
+    <n v="8.9930704317392647E-3"/>
     <x v="1"/>
   </r>
   <r>
@@ -1253,12 +1261,12 @@
     <n v="0.39572192499999997"/>
     <n v="0"/>
     <n v="4.7387469999999998E-3"/>
-    <n v="0.20080321285140559"/>
-    <n v="7.9744816586921854E-2"/>
-    <n v="1.3449722317708146"/>
-    <n v="0.10137160069318568"/>
-    <n v="0"/>
-    <n v="0.43544858425305011"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="7.9744816586921851E-4"/>
+    <n v="1.3449722642268061E-2"/>
+    <n v="0"/>
+    <n v="1.0137160068559577E-3"/>
+    <n v="4.36462308373828E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -1269,12 +1277,12 @@
     <n v="0.39784946199999999"/>
     <n v="0"/>
     <n v="1.4646612999999999E-2"/>
-    <n v="0.40160642570281119"/>
-    <n v="0.27910685805422647"/>
-    <n v="1.3522032644892192"/>
-    <n v="0.31332134940810774"/>
-    <n v="0"/>
-    <n v="0.57943367893134901"/>
+    <n v="4.0160642570281121E-3"/>
+    <n v="2.7910685805422647E-3"/>
+    <n v="1.3522032971197051E-2"/>
+    <n v="0"/>
+    <n v="3.1332134938464869E-3"/>
+    <n v="5.8256690058258237E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -1285,12 +1293,12 @@
     <n v="0.40659340700000002"/>
     <n v="0"/>
     <n v="1.7824833000000002E-2"/>
-    <n v="1.2048192771084338"/>
-    <n v="1.1961722488038278"/>
-    <n v="1.3819220202067126"/>
-    <n v="0.38131004953392089"/>
-    <n v="0"/>
-    <n v="1.1896406396163091"/>
+    <n v="1.2048192771084338E-2"/>
+    <n v="1.1961722488038277E-2"/>
+    <n v="1.3819220535543523E-2"/>
+    <n v="0"/>
+    <n v="3.813100495053714E-3"/>
+    <n v="1.1934537484479868E-2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1301,12 +1309,12 @@
     <n v="0.40659340700000002"/>
     <n v="0"/>
     <n v="1.7824833000000002E-2"/>
-    <n v="1.2048192771084338"/>
-    <n v="1.1961722488038278"/>
-    <n v="1.3819220202067126"/>
-    <n v="0.38131004953392089"/>
-    <n v="0"/>
-    <n v="1.1896406396163091"/>
+    <n v="1.2048192771084338E-2"/>
+    <n v="1.1961722488038277E-2"/>
+    <n v="1.3819220535543523E-2"/>
+    <n v="0"/>
+    <n v="3.813100495053714E-3"/>
+    <n v="1.1934537484479868E-2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1317,12 +1325,12 @@
     <n v="0.40659340700000002"/>
     <n v="0"/>
     <n v="1.7075697000000001E-2"/>
-    <n v="1.2048192771084338"/>
-    <n v="1.0765550239234449"/>
-    <n v="1.3819220202067126"/>
-    <n v="0.36528448086420917"/>
-    <n v="0"/>
-    <n v="1.1476143552214777"/>
+    <n v="1.2048192771084338E-2"/>
+    <n v="1.076555023923445E-2"/>
+    <n v="1.3819220535543523E-2"/>
+    <n v="0"/>
+    <n v="3.6528448083685953E-3"/>
+    <n v="1.1512672083664827E-2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1333,12 +1341,12 @@
     <n v="0.40659340700000002"/>
     <n v="0"/>
     <n v="1.7075697000000001E-2"/>
-    <n v="1.2048192771084338"/>
-    <n v="1.0765550239234449"/>
-    <n v="1.3819220202067126"/>
-    <n v="0.36528448086420917"/>
-    <n v="0"/>
-    <n v="1.1476143552214777"/>
+    <n v="1.2048192771084338E-2"/>
+    <n v="1.076555023923445E-2"/>
+    <n v="1.3819220535543523E-2"/>
+    <n v="0"/>
+    <n v="3.6528448083685953E-3"/>
+    <n v="1.1512672083664827E-2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1349,12 +1357,12 @@
     <n v="0.40659340700000002"/>
     <n v="0"/>
     <n v="1.7075697000000001E-2"/>
-    <n v="1.2048192771084338"/>
-    <n v="1.0765550239234449"/>
-    <n v="1.3819220202067126"/>
-    <n v="0.36528448086420917"/>
-    <n v="0"/>
-    <n v="1.1476143552214777"/>
+    <n v="1.2048192771084338E-2"/>
+    <n v="1.076555023923445E-2"/>
+    <n v="1.3819220535543523E-2"/>
+    <n v="0"/>
+    <n v="3.6528448083685953E-3"/>
+    <n v="1.1512672083664827E-2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1365,12 +1373,12 @@
     <n v="0.37185929600000001"/>
     <n v="7.3074790000000004E-3"/>
     <n v="1.0600712999999999E-2"/>
-    <n v="0.60240963855421692"/>
-    <n v="0.23923444976076555"/>
-    <n v="1.2638683773860748"/>
-    <n v="0.22677117923768927"/>
-    <n v="0.43861112848937844"/>
-    <n v="0.6303546821887146"/>
+    <n v="6.024096385542169E-3"/>
+    <n v="2.3923444976076554E-3"/>
+    <n v="1.2638684078849211E-2"/>
+    <n v="4.3861112859994956E-3"/>
+    <n v="2.2677117922071041E-3"/>
+    <n v="6.282362903238867E-3"/>
     <x v="3"/>
   </r>
   <r>
@@ -1381,12 +1389,12 @@
     <n v="0.34418604699999999"/>
     <n v="0"/>
     <n v="2.6227020000000002E-3"/>
-    <n v="0.20080321285140559"/>
-    <n v="7.9744816586921854E-2"/>
-    <n v="1.169813059455739"/>
-    <n v="5.6105020985762588E-2"/>
-    <n v="0"/>
-    <n v="0.391206125377207"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="7.9744816586921851E-4"/>
+    <n v="1.1698130876849039E-2"/>
+    <n v="0"/>
+    <n v="5.6105020981561877E-4"/>
+    <n v="3.9176718264427183E-3"/>
     <x v="2"/>
   </r>
   <r>
@@ -1397,12 +1405,12 @@
     <n v="0.39572192499999997"/>
     <n v="1.1685206E-2"/>
     <n v="6.4030769000000001E-2"/>
-    <n v="2.2088353413654618"/>
-    <n v="1.5151515151515151"/>
-    <n v="1.3449722317708146"/>
-    <n v="1.3697506001366211"/>
-    <n v="0.70137203135183224"/>
-    <n v="1.6813908449790849"/>
+    <n v="2.2088353413654619E-2"/>
+    <n v="1.5151515151515152E-2"/>
+    <n v="1.3449722642268061E-2"/>
+    <n v="7.0137203152864378E-3"/>
+    <n v="1.3697506000340648E-2"/>
+    <n v="1.6880746387841837E-2"/>
     <x v="2"/>
   </r>
   <r>
@@ -1413,12 +1421,12 @@
     <n v="0.35406698599999997"/>
     <n v="0"/>
     <n v="1.2413169E-2"/>
-    <n v="0.60240963855421692"/>
-    <n v="0.4784688995215311"/>
-    <n v="1.2033962089838357"/>
-    <n v="0.2655433622442876"/>
-    <n v="0"/>
-    <n v="0.68181197419491357"/>
+    <n v="6.024096385542169E-3"/>
+    <n v="4.7846889952153108E-3"/>
+    <n v="1.203396238023407E-2"/>
+    <n v="0"/>
+    <n v="2.6554336222440575E-3"/>
+    <n v="6.8446741507685168E-3"/>
     <x v="2"/>
   </r>
   <r>
@@ -1429,12 +1437,12 @@
     <n v="0.40217391299999999"/>
     <n v="0"/>
     <n v="1.6782658999999998E-2"/>
-    <n v="0.60240963855421692"/>
-    <n v="0.35885167464114831"/>
-    <n v="1.3669011271680525"/>
-    <n v="0.3590157918787179"/>
-    <n v="0"/>
-    <n v="0.68175689932917805"/>
+    <n v="6.024096385542169E-3"/>
+    <n v="3.5885167464114833E-3"/>
+    <n v="1.3669011601532177E-2"/>
+    <n v="0"/>
+    <n v="3.5901579185183756E-3"/>
+    <n v="6.8534706549371899E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -1445,12 +1453,12 @@
     <n v="0.4"/>
     <n v="0"/>
     <n v="6.3981419999999999E-3"/>
-    <n v="0.40160642570281119"/>
-    <n v="0.27910685805422647"/>
-    <n v="1.3595124725735777"/>
-    <n v="0.13686949229454545"/>
-    <n v="0"/>
-    <n v="0.57949646238130303"/>
+    <n v="4.0160642570281121E-3"/>
+    <n v="2.7910685805422647E-3"/>
+    <n v="1.3595125053804448E-2"/>
+    <n v="0"/>
+    <n v="1.3686949228429773E-3"/>
+    <n v="5.8086516550576034E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -1461,12 +1469,12 @@
     <n v="0.2890625"/>
     <n v="0"/>
     <n v="1.6593949999999999E-3"/>
-    <n v="0.20080321285140559"/>
-    <n v="0.1993620414673046"/>
-    <n v="0.98246018525824952"/>
-    <n v="3.5497891601359778E-2"/>
-    <n v="0"/>
-    <n v="0.38602786424212454"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="1.9936204146730461E-3"/>
+    <n v="9.8246020896633705E-3"/>
+    <n v="0"/>
+    <n v="3.5497891598701973E-4"/>
+    <n v="3.8638284908510687E-3"/>
     <x v="0"/>
   </r>
   <r>
@@ -1477,12 +1485,12 @@
     <n v="0.25783972100000002"/>
     <n v="0"/>
     <n v="5.4018969000000001E-4"/>
-    <n v="0.20080321285140559"/>
-    <n v="7.9744816586921854E-2"/>
-    <n v="0.87634079156097866"/>
-    <n v="1.1555774881684073E-2"/>
-    <n v="0"/>
-    <n v="0.31739256594247611"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="7.9744816586921851E-4"/>
+    <n v="8.7634081270826225E-3"/>
+    <n v="0"/>
+    <n v="1.1555774880818866E-4"/>
+    <n v="3.1750812897809659E-3"/>
     <x v="4"/>
   </r>
   <r>
@@ -1493,12 +1501,12 @@
     <n v="0.34579439299999998"/>
     <n v="2.7027026999999999E-2"/>
     <n v="2.0074241E-2"/>
-    <n v="0.40160642570281119"/>
-    <n v="0.27910685805422647"/>
-    <n v="1.1752794755737734"/>
-    <n v="0.42942953968016784"/>
-    <n v="1.6222222208483801"/>
-    <n v="0.60125270243914342"/>
+    <n v="4.0160642570281121E-3"/>
+    <n v="2.7910685805422647E-3"/>
+    <n v="1.1752795039348504E-2"/>
+    <n v="1.6222222212573321E-2"/>
+    <n v="4.2942953964801552E-3"/>
+    <n v="5.8932478272935599E-3"/>
     <x v="4"/>
   </r>
   <r>
@@ -1509,12 +1517,12 @@
     <n v="0.51748251700000003"/>
     <n v="0.17060607"/>
     <n v="0.29817918900000001"/>
-    <n v="4.4176706827309236"/>
-    <n v="4.0271132376395533"/>
-    <n v="1.7588098405006711"/>
-    <n v="6.3786696530382283"/>
-    <n v="10.240155447567881"/>
-    <n v="3.8687697466879318"/>
+    <n v="4.4176706827309238E-2"/>
+    <n v="4.0271132376395534E-2"/>
+    <n v="1.7588098829431218E-2"/>
+    <n v="0.1024015545014936"/>
+    <n v="6.3786696525606437E-2"/>
+    <n v="3.8301548994211412E-2"/>
     <x v="4"/>
   </r>
   <r>
@@ -1525,12 +1533,12 @@
     <n v="0.43786982200000002"/>
     <n v="1.7477166999999998E-2"/>
     <n v="6.0493725999999998E-2"/>
-    <n v="1.2048192771084338"/>
-    <n v="1.2759170653907497"/>
-    <n v="1.4882237109314309"/>
-    <n v="1.294085933795365"/>
-    <n v="1.0490184016495052"/>
-    <n v="1.2952152430115056"/>
+    <n v="1.2048192771084338E-2"/>
+    <n v="1.2759170653907496E-2"/>
+    <n v="1.4882237468442736E-2"/>
+    <n v="1.0490184019139561E-2"/>
+    <n v="1.2940859336984739E-2"/>
+    <n v="1.2976659273171706E-2"/>
     <x v="3"/>
   </r>
   <r>
@@ -1541,12 +1549,12 @@
     <n v="0.33333333300000001"/>
     <n v="2.2919201000000001E-4"/>
     <n v="3.1766670000000002E-3"/>
-    <n v="0.40160642570281119"/>
-    <n v="0.15948963317384371"/>
-    <n v="1.1329270593450544"/>
-    <n v="6.7955478243345788E-2"/>
-    <n v="1.3756613757884071E-2"/>
-    <n v="0.48084520477584164"/>
+    <n v="4.0160642570281121E-3"/>
+    <n v="1.594896331738437E-3"/>
+    <n v="1.1329270866841103E-2"/>
+    <n v="1.3756613761352026E-4"/>
+    <n v="6.7955478238257807E-4"/>
+    <n v="4.8138720025546252E-3"/>
     <x v="3"/>
   </r>
   <r>
@@ -1557,12 +1565,12 @@
     <n v="0.43529411800000001"/>
     <n v="1.9349314999999999E-2"/>
     <n v="6.0233889999999998E-2"/>
-    <n v="1.0040160642570282"/>
-    <n v="1.1961722488038278"/>
-    <n v="1.4794694566472868"/>
-    <n v="1.2885275042700677"/>
-    <n v="1.1613888849555993"/>
-    <n v="1.1992741041740458"/>
+    <n v="1.0040160642570281E-2"/>
+    <n v="1.1961722488038277E-2"/>
+    <n v="1.4794694923488776E-2"/>
+    <n v="1.1613888852483781E-2"/>
+    <n v="1.2885275041735927E-2"/>
+    <n v="1.200545499299442E-2"/>
     <x v="3"/>
   </r>
   <r>
@@ -1573,12 +1581,12 @@
     <n v="0.312236287"/>
     <n v="1.8511662E-4"/>
     <n v="1.9061320000000001E-3"/>
-    <n v="0.40160642570281119"/>
-    <n v="0.15948963317384371"/>
-    <n v="1.0612228164164081"/>
-    <n v="4.0776106420643138E-2"/>
-    <n v="1.11111109043679E-2"/>
-    <n v="0.46254153021131239"/>
+    <n v="4.0160642570281121E-3"/>
+    <n v="1.594896331738437E-3"/>
+    <n v="1.0612228420251441E-2"/>
+    <n v="1.1111110907168943E-4"/>
+    <n v="4.0776106417590138E-4"/>
+    <n v="4.6283818656868208E-3"/>
     <x v="3"/>
   </r>
   <r>
@@ -1589,12 +1597,12 @@
     <n v="0.52857142899999998"/>
     <n v="0.119829792"/>
     <n v="0.29456834599999998"/>
-    <n v="3.6144578313253009"/>
-    <n v="4.4657097288676235"/>
-    <n v="1.7964986259288482"/>
-    <n v="6.3014262520375439"/>
-    <n v="7.1924504053679099"/>
-    <n v="3.6278955812848275"/>
+    <n v="3.614457831325301E-2"/>
+    <n v="4.4657097288676235E-2"/>
+    <n v="1.7964986692807796E-2"/>
+    <n v="7.1924504071810821E-2"/>
+    <n v="6.3014262515657421E-2"/>
+    <n v="3.6189853506344648E-2"/>
     <x v="3"/>
   </r>
   <r>
@@ -1605,12 +1613,12 @@
     <n v="0.35071089999999999"/>
     <n v="0"/>
     <n v="9.5545809999999995E-3"/>
-    <n v="0.40160642570281119"/>
-    <n v="0.15948963317384371"/>
-    <n v="1.1919896070437619"/>
-    <n v="0.20439225177514195"/>
-    <n v="0"/>
-    <n v="0.49642494488552114"/>
+    <n v="4.0160642570281121E-3"/>
+    <n v="1.594896331738437E-3"/>
+    <n v="1.1919896358080766E-2"/>
+    <n v="0"/>
+    <n v="2.0439225175983866E-3"/>
+    <n v="4.9846887459404519E-3"/>
     <x v="3"/>
   </r>
   <r>
@@ -1621,12 +1629,12 @@
     <n v="0.39572192499999997"/>
     <n v="2.8446695000000001E-2"/>
     <n v="0.113481076"/>
-    <n v="2.2088353413654618"/>
-    <n v="1.3556618819776716"/>
-    <n v="1.3449722317708146"/>
-    <n v="2.4275949575921771"/>
-    <n v="1.7074338490392047"/>
-    <n v="1.6763903896502901"/>
+    <n v="2.2088353413654619E-2"/>
+    <n v="1.3556618819776715E-2"/>
+    <n v="1.3449722642268061E-2"/>
+    <n v="1.7074338494696382E-2"/>
+    <n v="2.4275949574104179E-2"/>
+    <n v="1.6835920088590958E-2"/>
     <x v="4"/>
   </r>
   <r>
@@ -1637,12 +1645,12 @@
     <n v="0.48366013099999999"/>
     <n v="4.4492611000000001E-2"/>
     <n v="0.35880012700000002"/>
-    <n v="3.0120481927710845"/>
-    <n v="4.3859649122807012"/>
-    <n v="1.6438549514526761"/>
-    <n v="7.6754769146587298"/>
-    <n v="2.6705453850977792"/>
-    <n v="3.1838449091817926"/>
+    <n v="3.0120481927710843E-2"/>
+    <n v="4.3859649122807015E-2"/>
+    <n v="1.6438549911211103E-2"/>
+    <n v="2.670545385771007E-2"/>
+    <n v="7.6754769140840493E-2"/>
+    <n v="3.2338942344032139E-2"/>
     <x v="4"/>
   </r>
   <r>
@@ -1653,12 +1661,12 @@
     <n v="0.39153439200000001"/>
     <n v="1.1592359999999999E-3"/>
     <n v="0.31729359000000001"/>
-    <n v="2.2088353413654618"/>
-    <n v="3.3492822966507179"/>
-    <n v="1.330739723413781"/>
-    <n v="6.7875662296356776"/>
-    <n v="6.9579920810653451E-2"/>
-    <n v="2.3486849632878912"/>
+    <n v="2.2088353413654619E-2"/>
+    <n v="3.3492822966507178E-2"/>
+    <n v="1.330739755526323E-2"/>
+    <n v="6.9579920828194116E-4"/>
+    <n v="6.7875662291274771E-2"/>
+    <n v="2.4158648343946387E-2"/>
     <x v="4"/>
   </r>
   <r>
@@ -1669,12 +1677,12 @@
     <n v="0.35922330099999999"/>
     <n v="0"/>
     <n v="0.17575748099999999"/>
-    <n v="1.8072289156626504"/>
-    <n v="1.7145135566188199"/>
-    <n v="1.2209213953713816"/>
-    <n v="3.7598160827687508"/>
-    <n v="0"/>
-    <n v="1.5754383749690473"/>
+    <n v="1.8072289156626505E-2"/>
+    <n v="1.7145135566188199E-2"/>
+    <n v="1.220921424833859E-2"/>
+    <n v="0"/>
+    <n v="3.7598160824872447E-2"/>
+    <n v="1.6130365431567241E-2"/>
     <x v="4"/>
   </r>
   <r>
@@ -1685,12 +1693,12 @@
     <n v="0.39153439200000001"/>
     <n v="1.1592359999999999E-3"/>
     <n v="0.26064115300000001"/>
-    <n v="2.2088353413654618"/>
-    <n v="2.6315789473684208"/>
-    <n v="1.330739723413781"/>
-    <n v="5.575653413471434"/>
-    <n v="6.9579920810653451E-2"/>
-    <n v="2.085369662877445"/>
+    <n v="2.2088353413654619E-2"/>
+    <n v="2.6315789473684209E-2"/>
+    <n v="1.330739755526323E-2"/>
+    <n v="6.9579920828194116E-4"/>
+    <n v="5.5756534130539721E-2"/>
+    <n v="2.1404304058243648E-2"/>
     <x v="4"/>
   </r>
   <r>
@@ -1701,12 +1709,12 @@
     <n v="0.4"/>
     <n v="5.2948680000000003E-3"/>
     <n v="0.32460893600000001"/>
-    <n v="2.6104417670682731"/>
-    <n v="3.6283891547049438"/>
-    <n v="1.3595124725735777"/>
-    <n v="6.9440566127779908"/>
-    <n v="0.31780974378199356"/>
-    <n v="2.60562189664308"/>
+    <n v="2.6104417670682729E-2"/>
+    <n v="3.6283891547049439E-2"/>
+    <n v="1.3595125053804448E-2"/>
+    <n v="3.1780974386211138E-3"/>
+    <n v="6.9440566122580746E-2"/>
+    <n v="2.6718843735267617E-2"/>
     <x v="4"/>
   </r>
   <r>
@@ -1717,12 +1725,12 @@
     <n v="0.39361702100000001"/>
     <n v="2.0433339999999999E-3"/>
     <n v="0.281327045"/>
-    <n v="2.4096385542168677"/>
-    <n v="2.9904306220095696"/>
-    <n v="1.3378181236668898"/>
-    <n v="6.0181674332759023"/>
-    <n v="0.12264544744100059"/>
-    <n v="2.2895662348263746"/>
+    <n v="2.4096385542168676E-2"/>
+    <n v="2.9904306220095694E-2"/>
+    <n v="1.337818155950243E-2"/>
+    <n v="1.2264544747191874E-3"/>
+    <n v="6.0181674328253082E-2"/>
+    <n v="2.3485214627474774E-2"/>
     <x v="4"/>
   </r>
   <r>
@@ -1733,12 +1741,12 @@
     <n v="0.47741935499999999"/>
     <n v="3.2079000000000003E-2"/>
     <n v="0.32321307399999999"/>
-    <n v="2.6104417670682731"/>
-    <n v="3.5087719298245612"/>
-    <n v="1.6226439194263316"/>
-    <n v="6.9141962371793788"/>
-    <n v="1.925452866961475"/>
-    <n v="2.6935458508193277"/>
+    <n v="2.6104417670682729E-2"/>
+    <n v="3.5087719298245612E-2"/>
+    <n v="1.6226439585829151E-2"/>
+    <n v="1.9254528674468696E-2"/>
+    <n v="6.9141962366616988E-2"/>
+    <n v="2.7434332943148603E-2"/>
     <x v="4"/>
   </r>
   <r>
@@ -1749,12 +1757,12 @@
     <n v="0.39361702100000001"/>
     <n v="2.0433339999999999E-3"/>
     <n v="0.29053073800000001"/>
-    <n v="2.4096385542168677"/>
-    <n v="3.1100478468899522"/>
-    <n v="1.3378181236668898"/>
-    <n v="6.2150534648995928"/>
-    <n v="0.12264544744100059"/>
-    <n v="2.3334011238507455"/>
+    <n v="2.4096385542168676E-2"/>
+    <n v="3.1100478468899521E-2"/>
+    <n v="1.337818155950243E-2"/>
+    <n v="1.2264544747191874E-3"/>
+    <n v="6.2150534644342573E-2"/>
+    <n v="2.3943252120877903E-2"/>
     <x v="4"/>
   </r>
   <r>
@@ -1765,12 +1773,12 @@
     <n v="0.36097561"/>
     <n v="1.5867139E-4"/>
     <n v="0.12458963100000001"/>
-    <n v="2.0080321285140563"/>
-    <n v="1.2759170653907497"/>
-    <n v="1.2268771102246387"/>
-    <n v="2.6652299277094449"/>
-    <n v="9.5238094323470898E-3"/>
-    <n v="1.48313474707723"/>
+    <n v="2.0080321285140562E-2"/>
+    <n v="1.2759170653907496E-2"/>
+    <n v="1.226877139830836E-2"/>
+    <n v="9.5238094347479819E-5"/>
+    <n v="2.6652299275098931E-2"/>
+    <n v="1.5096918156576314E-2"/>
     <x v="4"/>
   </r>
   <r>
@@ -1781,12 +1789,12 @@
     <n v="0.284615385"/>
     <n v="0"/>
     <n v="7.6343239999999996E-3"/>
-    <n v="0.20080321285140559"/>
-    <n v="0.1993620414673046"/>
-    <n v="0.96734541448457689"/>
-    <n v="0.16331398238614639"/>
-    <n v="0"/>
-    <n v="0.38352733245655424"/>
+    <n v="2.008032128514056E-3"/>
+    <n v="1.9936204146730461E-3"/>
+    <n v="9.6734543782792462E-3"/>
+    <n v="0"/>
+    <n v="1.6331398237391871E-3"/>
+    <n v="3.8516047811600809E-3"/>
     <x v="4"/>
   </r>
   <r>
@@ -1797,12 +1805,12 @@
     <n v="0.46835442999999999"/>
     <n v="5.1969989999999999E-3"/>
     <n v="4.5994436E-2"/>
-    <n v="2.0080321285140563"/>
-    <n v="1.8740031897926632"/>
-    <n v="1.5918342229252216"/>
-    <n v="0.98391612810312179"/>
-    <n v="0.31193542891442744"/>
-    <n v="1.7789874955762655"/>
+    <n v="2.0080321285140562E-2"/>
+    <n v="1.8740031897926633E-2"/>
+    <n v="1.5918342613383252E-2"/>
+    <n v="3.1193542899306441E-3"/>
+    <n v="9.8391612802945384E-3"/>
+    <n v="1.785707312172314E-2"/>
     <x v="2"/>
   </r>
   <r>
@@ -1813,12 +1821,12 @@
     <n v="0.46835442999999999"/>
     <n v="5.1969989999999999E-3"/>
     <n v="4.9740438999999997E-2"/>
-    <n v="2.0080321285140563"/>
-    <n v="1.9936204146730463"/>
-    <n v="1.5918342229252216"/>
-    <n v="1.0640508810898239"/>
-    <n v="0.31193542891442744"/>
-    <n v="1.8216548718142667"/>
+    <n v="2.0080321285140562E-2"/>
+    <n v="1.9936204146730464E-2"/>
+    <n v="1.5918342613383252E-2"/>
+    <n v="3.1193542899306441E-3"/>
+    <n v="1.064050881010156E-2"/>
+    <n v="1.8291760359400625E-2"/>
     <x v="2"/>
   </r>
   <r>
@@ -1829,12 +1837,12 @@
     <n v="0.45679012299999999"/>
     <n v="5.0929809999999999E-3"/>
     <n v="4.6556309999999997E-2"/>
-    <n v="2.0080321285140563"/>
-    <n v="1.7543859649122806"/>
-    <n v="1.5525296739172967"/>
-    <n v="0.99593577523091392"/>
-    <n v="0.30569203740236039"/>
-    <n v="1.7271657904269457"/>
+    <n v="2.0080321285140562E-2"/>
+    <n v="1.7543859649122806E-2"/>
+    <n v="1.5525297113819289E-2"/>
+    <n v="3.0569203747942346E-3"/>
+    <n v="9.9593577515634593E-3"/>
+    <n v="1.7340682371722097E-2"/>
     <x v="2"/>
   </r>
   <r>
@@ -1845,12 +1853,12 @@
     <n v="0.46250000000000002"/>
     <n v="4.0505050000000003E-3"/>
     <n v="3.0148219E-2"/>
-    <n v="1.8072289156626504"/>
-    <n v="1.0765550239234449"/>
-    <n v="1.5719362964131993"/>
-    <n v="0.64493276768705188"/>
-    <n v="0.24312031125944666"/>
-    <n v="1.4184825930856815"/>
+    <n v="1.8072289156626505E-2"/>
+    <n v="1.076555023923445E-2"/>
+    <n v="1.5719363343461395E-2"/>
+    <n v="2.4312031132073578E-3"/>
+    <n v="6.4493276763876424E-3"/>
+    <n v="1.4225007271340656E-2"/>
     <x v="2"/>
   </r>
   <r>
@@ -1861,12 +1869,12 @@
     <n v="0.40217391299999999"/>
     <n v="0"/>
     <n v="1.2878608999999999E-2"/>
-    <n v="0.60240963855421692"/>
-    <n v="0.35885167464114831"/>
-    <n v="1.3669011271680525"/>
-    <n v="0.27550008663295744"/>
-    <n v="0"/>
-    <n v="0.68092174227672053"/>
+    <n v="6.024096385542169E-3"/>
+    <n v="3.5885167464114833E-3"/>
+    <n v="1.3669011601532177E-2"/>
+    <n v="0"/>
+    <n v="2.7550008661233016E-3"/>
+    <n v="6.8367675138892884E-3"/>
     <x v="3"/>
   </r>
   <r>
@@ -1877,12 +1885,12 @@
     <n v="0.34418604699999999"/>
     <n v="0"/>
     <n v="2.1506535E-2"/>
-    <n v="0.40160642570281119"/>
-    <n v="0.3987240829346092"/>
-    <n v="1.169813059455739"/>
-    <n v="0.46006927112040841"/>
-    <n v="0"/>
-    <n v="0.57716963559823597"/>
+    <n v="4.0160642570281121E-3"/>
+    <n v="3.9872408293460922E-3"/>
+    <n v="1.1698130876849039E-2"/>
+    <n v="0"/>
+    <n v="4.6006927108596203E-3"/>
+    <n v="5.8177033536604235E-3"/>
     <x v="4"/>
   </r>
   <r>
@@ -1893,12 +1901,12 @@
     <n v="0.34418604699999999"/>
     <n v="0"/>
     <n v="2.1506535E-2"/>
-    <n v="0.40160642570281119"/>
-    <n v="0.3987240829346092"/>
-    <n v="1.169813059455739"/>
-    <n v="0.46006927112040841"/>
-    <n v="0"/>
-    <n v="0.57716963559823597"/>
+    <n v="4.0160642570281121E-3"/>
+    <n v="3.9872408293460922E-3"/>
+    <n v="1.1698130876849039E-2"/>
+    <n v="0"/>
+    <n v="4.6006927108596203E-3"/>
+    <n v="5.8177033536604235E-3"/>
     <x v="4"/>
   </r>
   <r>
@@ -1909,12 +1917,12 @@
     <n v="0.38341968900000001"/>
     <n v="4.6279155999999998E-4"/>
     <n v="2.4808255000000001E-2"/>
-    <n v="1.4056224899598393"/>
-    <n v="0.91706539074960136"/>
-    <n v="1.3031596235644556"/>
-    <n v="0.53069989171287835"/>
-    <n v="2.7777777861141974E-2"/>
-    <n v="1.1451487741709925"/>
+    <n v="1.4056224899598393E-2"/>
+    <n v="9.1706539074960132E-3"/>
+    <n v="1.3031596550114525E-2"/>
+    <n v="2.7777777868144576E-4"/>
+    <n v="5.3069989167314367E-3"/>
+    <n v="1.1501780031706745E-2"/>
     <x v="2"/>
   </r>
   <r>
@@ -1925,12 +1933,12 @@
     <n v="0.35576923100000002"/>
     <n v="0"/>
     <n v="5.3852791999999997E-2"/>
-    <n v="1.4056224899598393"/>
-    <n v="0.55821371610845294"/>
-    <n v="1.2091817672560259"/>
-    <n v="1.1520226183919893"/>
-    <n v="0"/>
-    <n v="1.0011583401218285"/>
+    <n v="1.4056224899598393E-2"/>
+    <n v="5.5821371610845294E-3"/>
+    <n v="1.2091817964352106E-2"/>
+    <n v="0"/>
+    <n v="1.1520226183057347E-2"/>
+    <n v="1.0126785735988197E-2"/>
     <x v="4"/>
   </r>
   <r>
@@ -1953,13 +1961,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43F4B3A1-1307-4E0F-BD9D-B0A2D657C52F}" name="TablaDinámica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="T20:Y27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43F4B3A1-1307-4E0F-BD9D-B0A2D657C52F}" name="TablaDinámica3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="T20:X27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1968,8 +1975,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="7">
         <item x="0"/>
         <item x="1"/>
@@ -1979,15 +1987,6 @@
         <item x="5"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
@@ -1995,19 +1994,19 @@
   </rowFields>
   <rowItems count="7">
     <i>
-      <x v="4"/>
+      <x/>
     </i>
     <i>
-      <x/>
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
@@ -2019,7 +2018,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -2032,16 +2031,12 @@
     <i i="3">
       <x v="3"/>
     </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
   </colItems>
-  <dataFields count="5">
-    <dataField name="Cuenta de Particion" fld="13" subtotal="countNums" baseField="13" baseItem="0"/>
+  <dataFields count="4">
+    <dataField name="Cuenta de Particion" fld="13" subtotal="count" baseField="13" baseItem="0"/>
     <dataField name="Suma de Agregacion" fld="12" baseField="0" baseItem="0"/>
     <dataField name="Promedio de Agregacion2" fld="12" subtotal="average" baseField="13" baseItem="0"/>
-    <dataField name="Suma de Weighted All Degree of N1 (75)" fld="3" baseField="13" baseItem="0"/>
-    <dataField name="Suma de OrdenB" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Suma de PorcentajeB" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2355,7 +2350,7 @@
   <dimension ref="I1:O28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,16 +2373,16 @@
         <v>2</v>
       </c>
       <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="9:15" x14ac:dyDescent="0.25">
@@ -2395,16 +2390,16 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2">
         <v>2</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2">
         <v>4</v>
@@ -2415,13 +2410,13 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -2435,7 +2430,7 @@
         <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -2452,13 +2447,13 @@
     </row>
     <row r="13" spans="9:15" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
         <v>9</v>
       </c>
-      <c r="K13" t="s">
-        <v>10</v>
-      </c>
       <c r="L13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="9:15" x14ac:dyDescent="0.25">
@@ -2466,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -2477,7 +2472,7 @@
         <v>0.9</v>
       </c>
       <c r="K15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15">
         <v>5</v>
@@ -2488,7 +2483,7 @@
         <v>0.8</v>
       </c>
       <c r="K16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16">
         <v>4</v>
@@ -2499,7 +2494,7 @@
         <v>0.7</v>
       </c>
       <c r="K17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <v>4</v>
@@ -2510,7 +2505,7 @@
         <v>0.6</v>
       </c>
       <c r="K18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <v>4</v>
@@ -2521,7 +2516,7 @@
         <v>0.5</v>
       </c>
       <c r="K19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19">
         <v>4</v>
@@ -2532,7 +2527,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L22">
         <v>5</v>
@@ -2543,7 +2538,7 @@
         <v>1.05</v>
       </c>
       <c r="K23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L23">
         <v>5</v>
@@ -2554,7 +2549,7 @@
         <v>1.2</v>
       </c>
       <c r="K24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L24">
         <v>6</v>
@@ -2565,7 +2560,7 @@
         <v>1.3</v>
       </c>
       <c r="K25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L25">
         <v>6</v>
@@ -2576,7 +2571,7 @@
         <v>1.4</v>
       </c>
       <c r="K26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L26">
         <v>6</v>
@@ -2587,7 +2582,7 @@
         <v>1.5</v>
       </c>
       <c r="K27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L27">
         <v>6</v>
@@ -2598,7 +2593,7 @@
         <v>1.6</v>
       </c>
       <c r="K28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L28">
         <v>7</v>
@@ -2611,3520 +2606,3502 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30143E2F-930F-43B3-9B36-C6E5F91FD583}">
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N76" sqref="A1:N76"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>0.43274853800000002</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>0.18141429100000001</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2">
         <v>2.567322E-2</v>
       </c>
-      <c r="H2" s="4">
-        <v>2.0080321285140563</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1.7543859649122806</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1.4708175872474523</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.5492032822913544</v>
-      </c>
-      <c r="L2" s="4">
-        <v>10.8888888903561</v>
-      </c>
-      <c r="M2" s="4">
-        <v>2.1255983179482398</v>
+      <c r="H2">
+        <v>2.0080321285140562E-2</v>
+      </c>
+      <c r="I2">
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="J2">
+        <v>1.4708176227402616E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.1088888889310112</v>
+      </c>
+      <c r="L2">
+        <v>5.4920328225023423E-3</v>
+      </c>
+      <c r="M2">
+        <v>2.0222014708223216E-2</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>0.30327868899999999</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27">
         <v>6.9085760999999996E-4</v>
       </c>
-      <c r="H3" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I3" s="4">
-        <v>7.9744816586921854E-2</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1.0307779009031577</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1.4778873355502754E-2</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.35603407426275907</v>
+      <c r="H3">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I3">
+        <v>7.9744816586921851E-4</v>
+      </c>
+      <c r="J3">
+        <v>1.0307779257772168E-2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1.4778873354396224E-4</v>
+      </c>
+      <c r="M3">
+        <v>3.5618186921480676E-3</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>11.5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <v>0.41573033700000001</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1.7016287000000001E-2</v>
       </c>
-      <c r="H4" s="4">
-        <v>0.60240963855421692</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.91706539074960136</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1.4129764459467917</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.36401357807130169</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0.8887005075237473</v>
+      <c r="H4">
+        <v>6.024096385542169E-3</v>
+      </c>
+      <c r="I4">
+        <v>9.1706539074960132E-3</v>
+      </c>
+      <c r="J4">
+        <v>1.4129764800438167E-2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3.6401357804404719E-3</v>
+      </c>
+      <c r="M4">
+        <v>8.9234065182817145E-3</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>11.5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>0.41573033700000001</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>1.7016287000000001E-2</v>
       </c>
-      <c r="H5" s="4">
-        <v>0.60240963855421692</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.91706539074960136</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1.4129764459467917</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.36401357807130169</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.8887005075237473</v>
+      <c r="H5">
+        <v>6.024096385542169E-3</v>
+      </c>
+      <c r="I5">
+        <v>9.1706539074960132E-3</v>
+      </c>
+      <c r="J5">
+        <v>1.4129764800438167E-2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>3.6401357804404719E-3</v>
+      </c>
+      <c r="M5">
+        <v>8.9234065182817145E-3</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>0.30327868899999999</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
         <v>6.9085760999999996E-4</v>
       </c>
-      <c r="H6" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I6" s="4">
-        <v>7.9744816586921854E-2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1.0307779009031577</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1.4778873355502754E-2</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0.35603407426275907</v>
+      <c r="H6">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I6">
+        <v>7.9744816586921851E-4</v>
+      </c>
+      <c r="J6">
+        <v>1.0307779257772168E-2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1.4778873354396224E-4</v>
+      </c>
+      <c r="M6">
+        <v>3.5618186921480676E-3</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>0.30327868899999999</v>
       </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
         <v>6.9085760999999996E-4</v>
       </c>
-      <c r="H7" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I7" s="4">
-        <v>7.9744816586921854E-2</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1.0307779009031577</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1.4778873355502754E-2</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.35603407426275907</v>
+      <c r="H7">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I7">
+        <v>7.9744816586921851E-4</v>
+      </c>
+      <c r="J7">
+        <v>1.0307779257772168E-2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1.4778873354396224E-4</v>
+      </c>
+      <c r="M7">
+        <v>3.5618186921480676E-3</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>0.30327868899999999</v>
       </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27">
         <v>6.9085760999999996E-4</v>
       </c>
-      <c r="H8" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I8" s="4">
-        <v>7.9744816586921854E-2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1.0307779009031577</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1.4778873355502754E-2</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0.35603407426275907</v>
+      <c r="H8">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I8">
+        <v>7.9744816586921851E-4</v>
+      </c>
+      <c r="J8">
+        <v>1.0307779257772168E-2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1.4778873354396224E-4</v>
+      </c>
+      <c r="M8">
+        <v>3.5618186921480676E-3</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>0.30327868899999999</v>
       </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27">
         <v>6.9085760999999996E-4</v>
       </c>
-      <c r="H9" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I9" s="4">
-        <v>7.9744816586921854E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1.0307779009031577</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1.4778873355502754E-2</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0.35603407426275907</v>
+      <c r="H9">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I9">
+        <v>7.9744816586921851E-4</v>
+      </c>
+      <c r="J9">
+        <v>1.0307779257772168E-2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1.4778873354396224E-4</v>
+      </c>
+      <c r="M9">
+        <v>3.5618186921480676E-3</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>2.5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>0.30327868899999999</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>1.7271439999999999E-3</v>
       </c>
-      <c r="H10" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.1993620414673046</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1.0307779009031577</v>
-      </c>
-      <c r="K10" s="4">
-        <v>3.6947182853955166E-2</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0.3981217860658775</v>
+      <c r="H10">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I10">
+        <v>1.9936204146730461E-3</v>
+      </c>
+      <c r="J10">
+        <v>1.0307779257772168E-2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>3.6947182851188845E-4</v>
+      </c>
+      <c r="M10">
+        <v>3.9849126411287648E-3</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <v>0.30327868899999999</v>
       </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="27">
         <v>6.9085760999999996E-4</v>
       </c>
-      <c r="H11" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I11" s="4">
-        <v>7.9744816586921854E-2</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1.0307779009031577</v>
-      </c>
-      <c r="K11" s="4">
-        <v>1.4778873355502754E-2</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0.35603407426275907</v>
+      <c r="H11">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I11">
+        <v>7.9744816586921851E-4</v>
+      </c>
+      <c r="J11">
+        <v>1.0307779257772168E-2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1.4778873354396224E-4</v>
+      </c>
+      <c r="M11">
+        <v>3.5618186921480676E-3</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>0.39572192499999997</v>
       </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>4.7387469999999998E-3</v>
       </c>
-      <c r="H12" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I12" s="4">
-        <v>7.9744816586921854E-2</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1.3449722317708146</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.10137160069318568</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0.43544858425305011</v>
+      <c r="H12">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I12">
+        <v>7.9744816586921851E-4</v>
+      </c>
+      <c r="J12">
+        <v>1.3449722642268061E-2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1.0137160068559577E-3</v>
+      </c>
+      <c r="M12">
+        <v>4.36462308373828E-3</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>36</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>87</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13">
         <v>0.64912280700000002</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>0.57493973899999995</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13">
         <v>0.17609849599999999</v>
       </c>
-      <c r="H13" s="4">
-        <v>7.2289156626506017</v>
-      </c>
-      <c r="I13" s="4">
-        <v>6.937799043062201</v>
-      </c>
-      <c r="J13" s="4">
-        <v>2.2062263808711782</v>
-      </c>
-      <c r="K13" s="4">
-        <v>3.7671110990273498</v>
-      </c>
-      <c r="L13" s="4">
-        <v>34.509160783928181</v>
-      </c>
-      <c r="M13" s="4">
-        <v>6.9279442845646759</v>
+      <c r="H13">
+        <v>7.2289156626506021E-2</v>
+      </c>
+      <c r="I13">
+        <v>6.9377990430622011E-2</v>
+      </c>
+      <c r="J13">
+        <v>2.2062264341103924E-2</v>
+      </c>
+      <c r="K13">
+        <v>0.34509160792627719</v>
+      </c>
+      <c r="L13">
+        <v>3.7671110987452974E-2</v>
+      </c>
+      <c r="M13">
+        <v>6.6205238012808157E-2</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>3.5</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
         <v>0.41573033700000001</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>8.199787E-3</v>
       </c>
-      <c r="H14" s="4">
-        <v>0.40160642570281119</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.27910685805422647</v>
-      </c>
-      <c r="J14" s="4">
-        <v>1.4129764459467917</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.17541040564798563</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0.59324786485814096</v>
+      <c r="H14">
+        <v>4.0160642570281121E-3</v>
+      </c>
+      <c r="I14">
+        <v>2.7910685805422647E-3</v>
+      </c>
+      <c r="J14">
+        <v>1.4129764800438167E-2</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1.7541040563485225E-3</v>
+      </c>
+      <c r="M14">
+        <v>5.9500197743861437E-3</v>
       </c>
       <c r="N14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <v>0.39572192499999997</v>
       </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>4.7387469999999998E-3</v>
       </c>
-      <c r="H15" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I15" s="4">
-        <v>7.9744816586921854E-2</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1.3449722317708146</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.10137160069318568</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.43544858425305011</v>
+      <c r="H15">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I15">
+        <v>7.9744816586921851E-4</v>
+      </c>
+      <c r="J15">
+        <v>1.3449722642268061E-2</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1.0137160068559577E-3</v>
+      </c>
+      <c r="M15">
+        <v>4.36462308373828E-3</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16">
         <v>0.39572192499999997</v>
       </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>4.7387469999999998E-3</v>
       </c>
-      <c r="H16" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I16" s="4">
-        <v>7.9744816586921854E-2</v>
-      </c>
-      <c r="J16" s="4">
-        <v>1.3449722317708146</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.10137160069318568</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.43544858425305011</v>
+      <c r="H16">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I16">
+        <v>7.9744816586921851E-4</v>
+      </c>
+      <c r="J16">
+        <v>1.3449722642268061E-2</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1.0137160068559577E-3</v>
+      </c>
+      <c r="M16">
+        <v>4.36462308373828E-3</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17">
         <v>0.39572192499999997</v>
       </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>4.7387469999999998E-3</v>
       </c>
-      <c r="H17" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I17" s="4">
-        <v>7.9744816586921854E-2</v>
-      </c>
-      <c r="J17" s="4">
-        <v>1.3449722317708146</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.10137160069318568</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0.43544858425305011</v>
+      <c r="H17">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I17">
+        <v>7.9744816586921851E-4</v>
+      </c>
+      <c r="J17">
+        <v>1.3449722642268061E-2</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1.0137160068559577E-3</v>
+      </c>
+      <c r="M17">
+        <v>4.36462308373828E-3</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>9</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>25.5</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18">
         <v>0.39153439200000001</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18">
         <v>3.9044913000000001E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18">
         <v>2.0512415999999999E-2</v>
       </c>
-      <c r="H18" s="4">
-        <v>1.8072289156626504</v>
-      </c>
-      <c r="I18" s="4">
-        <v>2.0334928229665072</v>
-      </c>
-      <c r="J18" s="4">
-        <v>1.330739723413781</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.43880300931966043</v>
-      </c>
-      <c r="L18" s="4">
-        <v>2.3435624450921586</v>
-      </c>
-      <c r="M18" s="4">
-        <v>1.7750680672705332</v>
+      <c r="H18">
+        <v>1.8072289156626505E-2</v>
+      </c>
+      <c r="I18">
+        <v>2.033492822966507E-2</v>
+      </c>
+      <c r="J18">
+        <v>1.330739755526323E-2</v>
+      </c>
+      <c r="K18">
+        <v>2.3435624456829562E-2</v>
+      </c>
+      <c r="L18">
+        <v>4.3880300928680624E-3</v>
+      </c>
+      <c r="M18">
+        <v>1.7560204809580104E-2</v>
       </c>
       <c r="N18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>7</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
         <v>23.5</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19">
         <v>0.342592593</v>
       </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>1.1536566999999999E-2</v>
       </c>
-      <c r="H19" s="4">
-        <v>1.4056224899598393</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1.8740031897926632</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1.1643972579870585</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.24679103216402629</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>1.4414362127317808</v>
+      <c r="H19">
+        <v>1.4056224899598393E-2</v>
+      </c>
+      <c r="I19">
+        <v>1.8740031897926633E-2</v>
+      </c>
+      <c r="J19">
+        <v>1.1643972860855327E-2</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>2.4679103214554849E-3</v>
+      </c>
+      <c r="M19">
+        <v>1.44390413007767E-2</v>
       </c>
       <c r="N19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>7</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>23.5</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20">
         <v>0.342592593</v>
       </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>1.1536566999999999E-2</v>
       </c>
-      <c r="H20" s="4">
-        <v>1.4056224899598393</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1.8740031897926632</v>
-      </c>
-      <c r="J20" s="4">
-        <v>1.1643972579870585</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.24679103216402629</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
-        <v>1.4414362127317808</v>
+      <c r="H20">
+        <v>1.4056224899598393E-2</v>
+      </c>
+      <c r="I20">
+        <v>1.8740031897926633E-2</v>
+      </c>
+      <c r="J20">
+        <v>1.1643972860855327E-2</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>2.4679103214554849E-3</v>
+      </c>
+      <c r="M20">
+        <v>1.44390413007767E-2</v>
       </c>
       <c r="N20">
         <v>2</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" t="s">
         <v>34</v>
       </c>
-      <c r="U20" t="s">
-        <v>39</v>
-      </c>
       <c r="V20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="W20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X20" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>7</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <v>25.5</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21">
         <v>0.342592593</v>
       </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>1.2201590999999999E-2</v>
       </c>
-      <c r="H21" s="4">
-        <v>1.4056224899598393</v>
-      </c>
-      <c r="I21" s="4">
-        <v>2.0334928229665072</v>
-      </c>
-      <c r="J21" s="4">
-        <v>1.1643972579870585</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.26101727116336199</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>1.4973998467326195</v>
+      <c r="H21">
+        <v>1.4056224899598393E-2</v>
+      </c>
+      <c r="I21">
+        <v>2.033492822966507E-2</v>
+      </c>
+      <c r="J21">
+        <v>1.1643972860855327E-2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>2.6101727114381905E-3</v>
+      </c>
+      <c r="M21">
+        <v>1.5000100264684808E-2</v>
       </c>
       <c r="N21">
         <v>2</v>
       </c>
-      <c r="T21" s="6">
-        <v>5</v>
-      </c>
-      <c r="U21" s="7">
-        <v>17</v>
-      </c>
-      <c r="V21" s="7">
-        <v>29.60143811202763</v>
-      </c>
-      <c r="W21" s="7">
-        <v>1.74126106541339</v>
-      </c>
-      <c r="X21" s="7">
-        <v>425</v>
-      </c>
-      <c r="Y21" s="7">
-        <v>18.877594059232372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="T21" s="3">
+        <v>1</v>
+      </c>
+      <c r="U21" s="4">
+        <v>27</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0.25498955795973943</v>
+      </c>
+      <c r="W21" s="4">
+        <v>9.4440577022125716E-3</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0.47540642305619246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>7</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22">
         <v>25.5</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22">
         <v>0.342592593</v>
       </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>1.3852768E-2</v>
       </c>
-      <c r="H22" s="4">
-        <v>1.4056224899598393</v>
-      </c>
-      <c r="I22" s="4">
-        <v>2.0334928229665072</v>
-      </c>
-      <c r="J22" s="4">
-        <v>1.1643972579870585</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0.29633936274532918</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4">
-        <v>1.4977530676484392</v>
+      <c r="H22">
+        <v>1.4056224899598393E-2</v>
+      </c>
+      <c r="I22">
+        <v>2.033492822966507E-2</v>
+      </c>
+      <c r="J22">
+        <v>1.1643972860855327E-2</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>2.963393627231416E-3</v>
+      </c>
+      <c r="M22">
+        <v>1.5007164683000672E-2</v>
       </c>
       <c r="N22">
         <v>2</v>
       </c>
-      <c r="T22" s="6">
-        <v>1</v>
-      </c>
-      <c r="U22" s="7">
-        <v>27</v>
-      </c>
-      <c r="V22" s="7">
-        <v>25.881048115956695</v>
-      </c>
-      <c r="W22" s="7">
-        <v>0.95855733762802575</v>
-      </c>
-      <c r="X22" s="7">
-        <v>253</v>
-      </c>
-      <c r="Y22" s="7">
-        <v>47.540642293634562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="T22" s="3">
+        <v>2</v>
+      </c>
+      <c r="U22" s="4">
+        <v>11</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0.15455774767770153</v>
+      </c>
+      <c r="W22" s="4">
+        <v>1.4050704334336502E-2</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0.1101271317701796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>7</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23">
         <v>23.5</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23">
         <v>0.342592593</v>
       </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>1.3267011E-2</v>
       </c>
-      <c r="H23" s="4">
-        <v>1.4056224899598393</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1.8740031897926632</v>
-      </c>
-      <c r="J23" s="4">
-        <v>1.1643972579870585</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.283808808844216</v>
-      </c>
-      <c r="L23" s="4">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4">
-        <v>1.4418063904985827</v>
+      <c r="H23">
+        <v>1.4056224899598393E-2</v>
+      </c>
+      <c r="I23">
+        <v>1.8740031897926633E-2</v>
+      </c>
+      <c r="J23">
+        <v>1.1643972860855327E-2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>2.8380880882296661E-3</v>
+      </c>
+      <c r="M23">
+        <v>1.4446444856112184E-2</v>
       </c>
       <c r="N23">
         <v>2</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="3">
         <v>3</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="4">
         <v>11</v>
       </c>
-      <c r="V23" s="7">
-        <v>18.257349617610675</v>
-      </c>
-      <c r="W23" s="7">
-        <v>1.659759056146425</v>
-      </c>
-      <c r="X23" s="7">
-        <v>221.5</v>
-      </c>
-      <c r="Y23" s="7">
-        <v>11.753395653234241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="V23" s="4">
+        <v>0.18254343700337428</v>
+      </c>
+      <c r="W23" s="4">
+        <v>1.6594857909397662E-2</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0.11753395656197198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>7</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24">
         <v>23.5</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24">
         <v>0.342592593</v>
       </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>1.3267011E-2</v>
       </c>
-      <c r="H24" s="4">
-        <v>1.4056224899598393</v>
-      </c>
-      <c r="I24" s="4">
-        <v>1.8740031897926632</v>
-      </c>
-      <c r="J24" s="4">
-        <v>1.1643972579870585</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0.283808808844216</v>
-      </c>
-      <c r="L24" s="4">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4">
-        <v>1.4418063904985827</v>
+      <c r="H24">
+        <v>1.4056224899598393E-2</v>
+      </c>
+      <c r="I24">
+        <v>1.8740031897926633E-2</v>
+      </c>
+      <c r="J24">
+        <v>1.1643972860855327E-2</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>2.8380880882296661E-3</v>
+      </c>
+      <c r="M24">
+        <v>1.4446444856112184E-2</v>
       </c>
       <c r="N24">
         <v>2</v>
       </c>
-      <c r="T24" s="6">
-        <v>2</v>
-      </c>
-      <c r="U24" s="7">
-        <v>11</v>
-      </c>
-      <c r="V24" s="7">
-        <v>15.528098108200433</v>
-      </c>
-      <c r="W24" s="7">
-        <v>1.4116452825636758</v>
-      </c>
-      <c r="X24" s="7">
-        <v>229</v>
-      </c>
-      <c r="Y24" s="7">
-        <v>11.012713174241725</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="T24" s="3">
+        <v>4</v>
+      </c>
+      <c r="U24" s="4">
+        <v>9</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.10737884017370407</v>
+      </c>
+      <c r="W24" s="4">
+        <v>1.1930982241522675E-2</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0.10815654797174332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
         <v>15</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25">
         <v>43</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25">
         <v>0.46540880499999998</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25">
         <v>0.135623945</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25">
         <v>5.1446655000000001E-2</v>
       </c>
-      <c r="H25" s="4">
-        <v>3.0120481927710845</v>
-      </c>
-      <c r="I25" s="4">
-        <v>3.4290271132376398</v>
-      </c>
-      <c r="J25" s="4">
-        <v>1.5818226881076602</v>
-      </c>
-      <c r="K25" s="4">
-        <v>1.1005503707330409</v>
-      </c>
-      <c r="L25" s="4">
-        <v>8.1404505666908378</v>
-      </c>
-      <c r="M25" s="4">
-        <v>2.9864555555049326</v>
+      <c r="H25">
+        <v>3.0120481927710843E-2</v>
+      </c>
+      <c r="I25">
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="J25">
+        <v>1.5818227262791723E-2</v>
+      </c>
+      <c r="K25">
+        <v>8.1404505687429948E-2</v>
+      </c>
+      <c r="L25">
+        <v>1.10055037065064E-2</v>
+      </c>
+      <c r="M25">
+        <v>2.9160565631481491E-2</v>
       </c>
       <c r="N25">
         <v>2</v>
       </c>
-      <c r="T25" s="6">
-        <v>4</v>
-      </c>
-      <c r="U25" s="7">
-        <v>9</v>
-      </c>
-      <c r="V25" s="7">
-        <v>10.732065441987395</v>
-      </c>
-      <c r="W25" s="7">
-        <v>1.1924517157763772</v>
-      </c>
-      <c r="X25" s="7">
-        <v>125.5</v>
-      </c>
-      <c r="Y25" s="7">
-        <v>10.815654794447774</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="T25" s="3">
+        <v>5</v>
+      </c>
+      <c r="U25" s="4">
+        <v>17</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.30053041718548068</v>
+      </c>
+      <c r="W25" s="4">
+        <v>1.767825983444004E-2</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0.18877594063991293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26">
         <v>11</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26">
         <v>24.5</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26">
         <v>0.46250000000000002</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26">
         <v>3.0213585000000001E-2</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26">
         <v>5.7555648000000001E-2</v>
       </c>
-      <c r="H26" s="4">
-        <v>2.2088353413654618</v>
-      </c>
-      <c r="I26" s="4">
-        <v>1.9537480063795853</v>
-      </c>
-      <c r="J26" s="4">
-        <v>1.5719362964131993</v>
-      </c>
-      <c r="K26" s="4">
-        <v>1.231234367796709</v>
-      </c>
-      <c r="L26" s="4">
-        <v>1.813486513277665</v>
-      </c>
-      <c r="M26" s="4">
-        <v>1.93474005002314</v>
+      <c r="H26">
+        <v>2.2088353413654619E-2</v>
+      </c>
+      <c r="I26">
+        <v>1.9537480063795853E-2</v>
+      </c>
+      <c r="J26">
+        <v>1.5719363343461395E-2</v>
+      </c>
+      <c r="K26">
+        <v>1.8134865137348334E-2</v>
+      </c>
+      <c r="L26">
+        <v>1.2312343677045237E-2</v>
+      </c>
+      <c r="M26">
+        <v>1.9289175380634366E-2</v>
       </c>
       <c r="N26">
         <v>3</v>
       </c>
-      <c r="T26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="T26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27">
         <v>16</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27">
         <v>43</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27">
         <v>0.52112676099999999</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27">
         <v>7.7198417000000005E-2</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27">
         <v>9.7463264999999993E-2</v>
       </c>
-      <c r="H27" s="4">
-        <v>3.2128514056224895</v>
-      </c>
-      <c r="I27" s="4">
-        <v>3.4290271132376398</v>
-      </c>
-      <c r="J27" s="4">
-        <v>1.7711958284284248</v>
-      </c>
-      <c r="K27" s="4">
-        <v>2.0849408465643213</v>
-      </c>
-      <c r="L27" s="4">
-        <v>4.6336205410872369</v>
-      </c>
-      <c r="M27" s="4">
-        <v>2.9736506688172839</v>
+      <c r="H27">
+        <v>3.2128514056224897E-2</v>
+      </c>
+      <c r="I27">
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="J27">
+        <v>1.7711958711697656E-2</v>
+      </c>
+      <c r="K27">
+        <v>4.6336205422553435E-2</v>
+      </c>
+      <c r="L27">
+        <v>2.0849408464082175E-2</v>
+      </c>
+      <c r="M27">
+        <v>2.9481638825893115E-2</v>
       </c>
       <c r="N27">
         <v>3</v>
       </c>
-      <c r="T27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U27" s="7">
+      <c r="T27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" s="4">
         <v>75</v>
       </c>
-      <c r="V27" s="7">
-        <v>99.999999395782865</v>
-      </c>
-      <c r="W27" s="7">
-        <v>1.3333333252771049</v>
-      </c>
-      <c r="X27" s="7">
-        <v>1254</v>
-      </c>
-      <c r="Y27" s="7">
-        <v>99.999999974790697</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="V27" s="4">
+        <v>1</v>
+      </c>
+      <c r="W27" s="4">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="X27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28">
         <v>10</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28">
         <v>25</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28">
         <v>0.47435897399999999</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28">
         <v>1.5816113E-2</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28">
         <v>7.9378487999999997E-2</v>
       </c>
-      <c r="H28" s="4">
-        <v>2.0080321285140563</v>
-      </c>
-      <c r="I28" s="4">
-        <v>1.9936204146730463</v>
-      </c>
-      <c r="J28" s="4">
-        <v>1.6122423540755135</v>
-      </c>
-      <c r="K28" s="4">
-        <v>1.6980700571616991</v>
-      </c>
-      <c r="L28" s="4">
-        <v>0.9493182493231288</v>
-      </c>
-      <c r="M28" s="4">
-        <v>1.8585924091789061</v>
+      <c r="H28">
+        <v>2.0080321285140562E-2</v>
+      </c>
+      <c r="I28">
+        <v>1.9936204146730464E-2</v>
+      </c>
+      <c r="J28">
+        <v>1.6122423929810933E-2</v>
+      </c>
+      <c r="K28">
+        <v>9.4931824956244609E-3</v>
+      </c>
+      <c r="L28">
+        <v>1.6980700570345609E-2</v>
+      </c>
+      <c r="M28">
+        <v>1.8660799369883237E-2</v>
       </c>
       <c r="N28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29">
         <v>17</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29">
         <v>32.5</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29">
         <v>0.52112676099999999</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29">
         <v>5.6719919000000001E-2</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29">
         <v>0.10404250299999999</v>
       </c>
-      <c r="H29" s="4">
-        <v>3.4136546184738958</v>
-      </c>
-      <c r="I29" s="4">
-        <v>2.5917065390749601</v>
-      </c>
-      <c r="J29" s="4">
-        <v>1.7711958284284248</v>
-      </c>
-      <c r="K29" s="4">
-        <v>2.2256843569060711</v>
-      </c>
-      <c r="L29" s="4">
-        <v>3.4044555831657046</v>
-      </c>
-      <c r="M29" s="4">
-        <v>2.7031104291448944</v>
+      <c r="H29">
+        <v>3.4136546184738957E-2</v>
+      </c>
+      <c r="I29">
+        <v>2.5917065390749602E-2</v>
+      </c>
+      <c r="J29">
+        <v>1.7711958711697656E-2</v>
+      </c>
+      <c r="K29">
+        <v>3.4044555840239465E-2</v>
+      </c>
+      <c r="L29">
+        <v>2.225684356739429E-2</v>
+      </c>
+      <c r="M29">
+        <v>2.6913227275900477E-2</v>
       </c>
       <c r="N29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30">
         <v>4</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30">
         <v>10.5</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30">
         <v>0.40437158499999998</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30">
         <v>2.7212144000000001E-2</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30">
         <v>2.4666170000000001E-2</v>
       </c>
-      <c r="H30" s="4">
-        <v>0.80321285140562237</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0.83732057416267947</v>
-      </c>
-      <c r="J30" s="4">
-        <v>1.3743705334046166</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0.52766039965210965</v>
-      </c>
-      <c r="L30" s="4">
-        <v>1.6333333545611926</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0.98838927047902858</v>
+      <c r="H30">
+        <v>8.0321285140562242E-3</v>
+      </c>
+      <c r="I30">
+        <v>8.3732057416267946E-3</v>
+      </c>
+      <c r="J30">
+        <v>1.3743705665700287E-2</v>
+      </c>
+      <c r="K30">
+        <v>1.6333333549729458E-2</v>
+      </c>
+      <c r="L30">
+        <v>5.2766039961260258E-3</v>
+      </c>
+      <c r="M30">
+        <v>9.7733254923285332E-3</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31">
         <v>8</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31">
         <v>12.5</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31">
         <v>0.43023255799999999</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31">
         <v>8.4845119999999996E-3</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31">
         <v>1.9807834999999999E-2</v>
       </c>
-      <c r="H31" s="4">
-        <v>1.6064257028112447</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0.99681020733652315</v>
-      </c>
-      <c r="J31" s="4">
-        <v>1.4622663217705878</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0.42373056426445799</v>
-      </c>
-      <c r="L31" s="4">
-        <v>0.50925926478908434</v>
-      </c>
-      <c r="M31" s="4">
-        <v>1.3013068252285735</v>
+      <c r="H31">
+        <v>1.6064257028112448E-2</v>
+      </c>
+      <c r="I31">
+        <v>9.9681020733652318E-3</v>
+      </c>
+      <c r="J31">
+        <v>1.4622663570570437E-2</v>
+      </c>
+      <c r="K31">
+        <v>5.0925926491746541E-3</v>
+      </c>
+      <c r="L31">
+        <v>4.2373056423273235E-3</v>
+      </c>
+      <c r="M31">
+        <v>1.3004515470481584E-2</v>
       </c>
       <c r="N31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="V31" s="4"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32">
         <v>3.5</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32">
         <v>0.32034632000000002</v>
       </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>2.6144269999999999E-3</v>
       </c>
-      <c r="H32" s="4">
-        <v>0.40160642570281119</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0.27910685805422647</v>
-      </c>
-      <c r="J32" s="4">
-        <v>1.0887870439576164</v>
-      </c>
-      <c r="K32" s="4">
-        <v>5.59280016184623E-2</v>
-      </c>
-      <c r="L32" s="4">
-        <v>0</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0.51100569032055199</v>
+      <c r="H32">
+        <v>4.0160642570281121E-3</v>
+      </c>
+      <c r="I32">
+        <v>2.7910685805422647E-3</v>
+      </c>
+      <c r="J32">
+        <v>1.0887870702315143E-2</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>5.5928001614274838E-4</v>
+      </c>
+      <c r="M32">
+        <v>5.1156497690512731E-3</v>
       </c>
       <c r="N32">
         <v>2</v>
       </c>
+      <c r="U32" s="4"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33">
         <v>8.5</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33">
         <v>0.42045454500000001</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33">
         <v>8.8084070000000007E-3</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33">
         <v>1.8283536999999999E-2</v>
       </c>
-      <c r="H33" s="4">
-        <v>0.80321285140562237</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0.67783094098883578</v>
-      </c>
-      <c r="J33" s="4">
-        <v>1.4290329951943717</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0.39112267694879804</v>
-      </c>
-      <c r="L33" s="4">
-        <v>0.52870016245872764</v>
-      </c>
-      <c r="M33" s="4">
-        <v>0.9006828094044903</v>
+      <c r="H33">
+        <v>8.0321285140562242E-3</v>
+      </c>
+      <c r="I33">
+        <v>6.7783094098883574E-3</v>
+      </c>
+      <c r="J33">
+        <v>1.4290330296788625E-2</v>
+      </c>
+      <c r="K33">
+        <v>5.2870016259200965E-3</v>
+      </c>
+      <c r="L33">
+        <v>3.9112267691951384E-3</v>
+      </c>
+      <c r="M33">
+        <v>8.9930704317392647E-3</v>
       </c>
       <c r="N33">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34">
         <v>0.39572192499999997</v>
       </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>4.7387469999999998E-3</v>
       </c>
-      <c r="H34" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I34" s="4">
-        <v>7.9744816586921854E-2</v>
-      </c>
-      <c r="J34" s="4">
-        <v>1.3449722317708146</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0.10137160069318568</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0</v>
-      </c>
-      <c r="M34" s="4">
-        <v>0.43544858425305011</v>
+      <c r="H34">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I34">
+        <v>7.9744816586921851E-4</v>
+      </c>
+      <c r="J34">
+        <v>1.3449722642268061E-2</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1.0137160068559577E-3</v>
+      </c>
+      <c r="M34">
+        <v>4.36462308373828E-3</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35">
         <v>3.5</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35">
         <v>0.39784946199999999</v>
       </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>1.4646612999999999E-2</v>
       </c>
-      <c r="H35" s="4">
-        <v>0.40160642570281119</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0.27910685805422647</v>
-      </c>
-      <c r="J35" s="4">
-        <v>1.3522032644892192</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0.31332134940810774</v>
-      </c>
-      <c r="L35" s="4">
-        <v>0</v>
-      </c>
-      <c r="M35" s="4">
-        <v>0.57943367893134901</v>
+      <c r="H35">
+        <v>4.0160642570281121E-3</v>
+      </c>
+      <c r="I35">
+        <v>2.7910685805422647E-3</v>
+      </c>
+      <c r="J35">
+        <v>1.3522032971197051E-2</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>3.1332134938464869E-3</v>
+      </c>
+      <c r="M35">
+        <v>5.8256690058258237E-3</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>35</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36">
         <v>6</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36">
         <v>15</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36">
         <v>0.40659340700000002</v>
       </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>1.7824833000000002E-2</v>
       </c>
-      <c r="H36" s="4">
-        <v>1.2048192771084338</v>
-      </c>
-      <c r="I36" s="4">
-        <v>1.1961722488038278</v>
-      </c>
-      <c r="J36" s="4">
-        <v>1.3819220202067126</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0.38131004953392089</v>
-      </c>
-      <c r="L36" s="4">
-        <v>0</v>
-      </c>
-      <c r="M36" s="4">
-        <v>1.1896406396163091</v>
+      <c r="H36">
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="I36">
+        <v>1.1961722488038277E-2</v>
+      </c>
+      <c r="J36">
+        <v>1.3819220535543523E-2</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>3.813100495053714E-3</v>
+      </c>
+      <c r="M36">
+        <v>1.1934537484479868E-2</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>36</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37">
         <v>6</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37">
         <v>15</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37">
         <v>0.40659340700000002</v>
       </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>1.7824833000000002E-2</v>
       </c>
-      <c r="H37" s="4">
-        <v>1.2048192771084338</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1.1961722488038278</v>
-      </c>
-      <c r="J37" s="4">
-        <v>1.3819220202067126</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0.38131004953392089</v>
-      </c>
-      <c r="L37" s="4">
-        <v>0</v>
-      </c>
-      <c r="M37" s="4">
-        <v>1.1896406396163091</v>
+      <c r="H37">
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="I37">
+        <v>1.1961722488038277E-2</v>
+      </c>
+      <c r="J37">
+        <v>1.3819220535543523E-2</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>3.813100495053714E-3</v>
+      </c>
+      <c r="M37">
+        <v>1.1934537484479868E-2</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>37</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38">
         <v>6</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38">
         <v>13.5</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38">
         <v>0.40659340700000002</v>
       </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>1.7075697000000001E-2</v>
       </c>
-      <c r="H38" s="4">
-        <v>1.2048192771084338</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1.0765550239234449</v>
-      </c>
-      <c r="J38" s="4">
-        <v>1.3819220202067126</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0.36528448086420917</v>
-      </c>
-      <c r="L38" s="4">
-        <v>0</v>
-      </c>
-      <c r="M38" s="4">
-        <v>1.1476143552214777</v>
+      <c r="H38">
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="I38">
+        <v>1.076555023923445E-2</v>
+      </c>
+      <c r="J38">
+        <v>1.3819220535543523E-2</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>3.6528448083685953E-3</v>
+      </c>
+      <c r="M38">
+        <v>1.1512672083664827E-2</v>
       </c>
       <c r="N38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39">
         <v>6</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39">
         <v>13.5</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39">
         <v>0.40659340700000002</v>
       </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>1.7075697000000001E-2</v>
       </c>
-      <c r="H39" s="4">
-        <v>1.2048192771084338</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1.0765550239234449</v>
-      </c>
-      <c r="J39" s="4">
-        <v>1.3819220202067126</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0.36528448086420917</v>
-      </c>
-      <c r="L39" s="4">
-        <v>0</v>
-      </c>
-      <c r="M39" s="4">
-        <v>1.1476143552214777</v>
+      <c r="H39">
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="I39">
+        <v>1.076555023923445E-2</v>
+      </c>
+      <c r="J39">
+        <v>1.3819220535543523E-2</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>3.6528448083685953E-3</v>
+      </c>
+      <c r="M39">
+        <v>1.1512672083664827E-2</v>
       </c>
       <c r="N39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>39</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40">
         <v>6</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40">
         <v>13.5</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40">
         <v>0.40659340700000002</v>
       </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>1.7075697000000001E-2</v>
       </c>
-      <c r="H40" s="4">
-        <v>1.2048192771084338</v>
-      </c>
-      <c r="I40" s="4">
-        <v>1.0765550239234449</v>
-      </c>
-      <c r="J40" s="4">
-        <v>1.3819220202067126</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0.36528448086420917</v>
-      </c>
-      <c r="L40" s="4">
-        <v>0</v>
-      </c>
-      <c r="M40" s="4">
-        <v>1.1476143552214777</v>
+      <c r="H40">
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="I40">
+        <v>1.076555023923445E-2</v>
+      </c>
+      <c r="J40">
+        <v>1.3819220535543523E-2</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>3.6528448083685953E-3</v>
+      </c>
+      <c r="M40">
+        <v>1.1512672083664827E-2</v>
       </c>
       <c r="N40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41">
         <v>3</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41">
         <v>3</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41">
         <v>0.37185929600000001</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41">
         <v>7.3074790000000004E-3</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41">
         <v>1.0600712999999999E-2</v>
       </c>
-      <c r="H41" s="4">
-        <v>0.60240963855421692</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0.23923444976076555</v>
-      </c>
-      <c r="J41" s="4">
-        <v>1.2638683773860748</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0.22677117923768927</v>
-      </c>
-      <c r="L41" s="4">
-        <v>0.43861112848937844</v>
-      </c>
-      <c r="M41" s="4">
-        <v>0.6303546821887146</v>
+      <c r="H41">
+        <v>6.024096385542169E-3</v>
+      </c>
+      <c r="I41">
+        <v>2.3923444976076554E-3</v>
+      </c>
+      <c r="J41">
+        <v>1.2638684078849211E-2</v>
+      </c>
+      <c r="K41">
+        <v>4.3861112859994956E-3</v>
+      </c>
+      <c r="L41">
+        <v>2.2677117922071041E-3</v>
+      </c>
+      <c r="M41">
+        <v>6.282362903238867E-3</v>
       </c>
       <c r="N41">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>41</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42">
         <v>0.34418604699999999</v>
       </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>2.6227020000000002E-3</v>
       </c>
-      <c r="H42" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I42" s="4">
-        <v>7.9744816586921854E-2</v>
-      </c>
-      <c r="J42" s="4">
-        <v>1.169813059455739</v>
-      </c>
-      <c r="K42" s="4">
-        <v>5.6105020985762588E-2</v>
-      </c>
-      <c r="L42" s="4">
-        <v>0</v>
-      </c>
-      <c r="M42" s="4">
-        <v>0.391206125377207</v>
+      <c r="H42">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I42">
+        <v>7.9744816586921851E-4</v>
+      </c>
+      <c r="J42">
+        <v>1.1698130876849039E-2</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>5.6105020981561877E-4</v>
+      </c>
+      <c r="M42">
+        <v>3.9176718264427183E-3</v>
       </c>
       <c r="N42">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43">
         <v>11</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43">
         <v>19</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43">
         <v>0.39572192499999997</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43">
         <v>1.1685206E-2</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43">
         <v>6.4030769000000001E-2</v>
       </c>
-      <c r="H43" s="4">
-        <v>2.2088353413654618</v>
-      </c>
-      <c r="I43" s="4">
-        <v>1.5151515151515151</v>
-      </c>
-      <c r="J43" s="4">
-        <v>1.3449722317708146</v>
-      </c>
-      <c r="K43" s="4">
-        <v>1.3697506001366211</v>
-      </c>
-      <c r="L43" s="4">
-        <v>0.70137203135183224</v>
-      </c>
-      <c r="M43" s="4">
-        <v>1.6813908449790849</v>
+      <c r="H43">
+        <v>2.2088353413654619E-2</v>
+      </c>
+      <c r="I43">
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="J43">
+        <v>1.3449722642268061E-2</v>
+      </c>
+      <c r="K43">
+        <v>7.0137203152864378E-3</v>
+      </c>
+      <c r="L43">
+        <v>1.3697506000340648E-2</v>
+      </c>
+      <c r="M43">
+        <v>1.6880746387841837E-2</v>
       </c>
       <c r="N43">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>43</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44">
         <v>3</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44">
         <v>6</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44">
         <v>0.35406698599999997</v>
       </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
         <v>1.2413169E-2</v>
       </c>
-      <c r="H44" s="4">
-        <v>0.60240963855421692</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0.4784688995215311</v>
-      </c>
-      <c r="J44" s="4">
-        <v>1.2033962089838357</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0.2655433622442876</v>
-      </c>
-      <c r="L44" s="4">
-        <v>0</v>
-      </c>
-      <c r="M44" s="4">
-        <v>0.68181197419491357</v>
+      <c r="H44">
+        <v>6.024096385542169E-3</v>
+      </c>
+      <c r="I44">
+        <v>4.7846889952153108E-3</v>
+      </c>
+      <c r="J44">
+        <v>1.203396238023407E-2</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>2.6554336222440575E-3</v>
+      </c>
+      <c r="M44">
+        <v>6.8446741507685168E-3</v>
       </c>
       <c r="N44">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>44</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45">
         <v>4.5</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45">
         <v>0.40217391299999999</v>
       </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>1.6782658999999998E-2</v>
       </c>
-      <c r="H45" s="4">
-        <v>0.60240963855421692</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0.35885167464114831</v>
-      </c>
-      <c r="J45" s="4">
-        <v>1.3669011271680525</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0.3590157918787179</v>
-      </c>
-      <c r="L45" s="4">
-        <v>0</v>
-      </c>
-      <c r="M45" s="4">
-        <v>0.68175689932917805</v>
+      <c r="H45">
+        <v>6.024096385542169E-3</v>
+      </c>
+      <c r="I45">
+        <v>3.5885167464114833E-3</v>
+      </c>
+      <c r="J45">
+        <v>1.3669011601532177E-2</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>3.5901579185183756E-3</v>
+      </c>
+      <c r="M45">
+        <v>6.8534706549371899E-3</v>
       </c>
       <c r="N45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>45</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46">
         <v>2</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46">
         <v>3.5</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46">
         <v>0.4</v>
       </c>
-      <c r="F46" s="4">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
         <v>6.3981419999999999E-3</v>
       </c>
-      <c r="H46" s="4">
-        <v>0.40160642570281119</v>
-      </c>
-      <c r="I46" s="4">
-        <v>0.27910685805422647</v>
-      </c>
-      <c r="J46" s="4">
-        <v>1.3595124725735777</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0.13686949229454545</v>
-      </c>
-      <c r="L46" s="4">
-        <v>0</v>
-      </c>
-      <c r="M46" s="4">
-        <v>0.57949646238130303</v>
+      <c r="H46">
+        <v>4.0160642570281121E-3</v>
+      </c>
+      <c r="I46">
+        <v>2.7910685805422647E-3</v>
+      </c>
+      <c r="J46">
+        <v>1.3595125053804448E-2</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1.3686949228429773E-3</v>
+      </c>
+      <c r="M46">
+        <v>5.8086516550576034E-3</v>
       </c>
       <c r="N46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>46</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47">
         <v>2.5</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47">
         <v>0.2890625</v>
       </c>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
         <v>1.6593949999999999E-3</v>
       </c>
-      <c r="H47" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0.1993620414673046</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0.98246018525824952</v>
-      </c>
-      <c r="K47" s="4">
-        <v>3.5497891601359778E-2</v>
-      </c>
-      <c r="L47" s="4">
-        <v>0</v>
-      </c>
-      <c r="M47" s="4">
-        <v>0.38602786424212454</v>
+      <c r="H47">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I47">
+        <v>1.9936204146730461E-3</v>
+      </c>
+      <c r="J47">
+        <v>9.8246020896633705E-3</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>3.5497891598701973E-4</v>
+      </c>
+      <c r="M47">
+        <v>3.8638284908510687E-3</v>
       </c>
       <c r="N47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>47</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48">
         <v>0.25783972100000002</v>
       </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
         <v>5.4018969000000001E-4</v>
       </c>
-      <c r="H48" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I48" s="4">
-        <v>7.9744816586921854E-2</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0.87634079156097866</v>
-      </c>
-      <c r="K48" s="4">
-        <v>1.1555774881684073E-2</v>
-      </c>
-      <c r="L48" s="4">
-        <v>0</v>
-      </c>
-      <c r="M48" s="4">
-        <v>0.31739256594247611</v>
+      <c r="H48">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I48">
+        <v>7.9744816586921851E-4</v>
+      </c>
+      <c r="J48">
+        <v>8.7634081270826225E-3</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1.1555774880818866E-4</v>
+      </c>
+      <c r="M48">
+        <v>3.1750812897809659E-3</v>
       </c>
       <c r="N48">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>48</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49">
         <v>2</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49">
         <v>3.5</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49">
         <v>0.34579439299999998</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49">
         <v>2.7027026999999999E-2</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49">
         <v>2.0074241E-2</v>
       </c>
-      <c r="H49" s="4">
-        <v>0.40160642570281119</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0.27910685805422647</v>
-      </c>
-      <c r="J49" s="4">
-        <v>1.1752794755737734</v>
-      </c>
-      <c r="K49" s="4">
-        <v>0.42942953968016784</v>
-      </c>
-      <c r="L49" s="4">
-        <v>1.6222222208483801</v>
-      </c>
-      <c r="M49" s="4">
-        <v>0.60125270243914342</v>
+      <c r="H49">
+        <v>4.0160642570281121E-3</v>
+      </c>
+      <c r="I49">
+        <v>2.7910685805422647E-3</v>
+      </c>
+      <c r="J49">
+        <v>1.1752795039348504E-2</v>
+      </c>
+      <c r="K49">
+        <v>1.6222222212573321E-2</v>
+      </c>
+      <c r="L49">
+        <v>4.2942953964801552E-3</v>
+      </c>
+      <c r="M49">
+        <v>5.8932478272935599E-3</v>
       </c>
       <c r="N49">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>49</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50">
         <v>22</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50">
         <v>50.5</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50">
         <v>0.51748251700000003</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50">
         <v>0.17060607</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50">
         <v>0.29817918900000001</v>
       </c>
-      <c r="H50" s="4">
-        <v>4.4176706827309236</v>
-      </c>
-      <c r="I50" s="4">
-        <v>4.0271132376395533</v>
-      </c>
-      <c r="J50" s="4">
-        <v>1.7588098405006711</v>
-      </c>
-      <c r="K50" s="4">
-        <v>6.3786696530382283</v>
-      </c>
-      <c r="L50" s="4">
-        <v>10.240155447567881</v>
-      </c>
-      <c r="M50" s="4">
-        <v>3.8687697466879318</v>
+      <c r="H50">
+        <v>4.4176706827309238E-2</v>
+      </c>
+      <c r="I50">
+        <v>4.0271132376395534E-2</v>
+      </c>
+      <c r="J50">
+        <v>1.7588098829431218E-2</v>
+      </c>
+      <c r="K50">
+        <v>0.1024015545014936</v>
+      </c>
+      <c r="L50">
+        <v>6.3786696525606437E-2</v>
+      </c>
+      <c r="M50">
+        <v>3.8301548994211412E-2</v>
       </c>
       <c r="N50">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>50</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51">
         <v>6</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51">
         <v>16</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51">
         <v>0.43786982200000002</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51">
         <v>1.7477166999999998E-2</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51">
         <v>6.0493725999999998E-2</v>
       </c>
-      <c r="H51" s="4">
-        <v>1.2048192771084338</v>
-      </c>
-      <c r="I51" s="4">
-        <v>1.2759170653907497</v>
-      </c>
-      <c r="J51" s="4">
-        <v>1.4882237109314309</v>
-      </c>
-      <c r="K51" s="4">
-        <v>1.294085933795365</v>
-      </c>
-      <c r="L51" s="4">
-        <v>1.0490184016495052</v>
-      </c>
-      <c r="M51" s="4">
-        <v>1.2952152430115056</v>
+      <c r="H51">
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="I51">
+        <v>1.2759170653907496E-2</v>
+      </c>
+      <c r="J51">
+        <v>1.4882237468442736E-2</v>
+      </c>
+      <c r="K51">
+        <v>1.0490184019139561E-2</v>
+      </c>
+      <c r="L51">
+        <v>1.2940859336984739E-2</v>
+      </c>
+      <c r="M51">
+        <v>1.2976659273171706E-2</v>
       </c>
       <c r="N51">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>51</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52">
         <v>2</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52">
         <v>2</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52">
         <v>0.33333333300000001</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52">
         <v>2.2919201000000001E-4</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52">
         <v>3.1766670000000002E-3</v>
       </c>
-      <c r="H52" s="4">
-        <v>0.40160642570281119</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0.15948963317384371</v>
-      </c>
-      <c r="J52" s="4">
-        <v>1.1329270593450544</v>
-      </c>
-      <c r="K52" s="4">
-        <v>6.7955478243345788E-2</v>
-      </c>
-      <c r="L52" s="4">
-        <v>1.3756613757884071E-2</v>
-      </c>
-      <c r="M52" s="4">
-        <v>0.48084520477584164</v>
+      <c r="H52">
+        <v>4.0160642570281121E-3</v>
+      </c>
+      <c r="I52">
+        <v>1.594896331738437E-3</v>
+      </c>
+      <c r="J52">
+        <v>1.1329270866841103E-2</v>
+      </c>
+      <c r="K52">
+        <v>1.3756613761352026E-4</v>
+      </c>
+      <c r="L52">
+        <v>6.7955478238257807E-4</v>
+      </c>
+      <c r="M52">
+        <v>4.8138720025546252E-3</v>
       </c>
       <c r="N52">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53">
         <v>52</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53">
         <v>5</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53">
         <v>15</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53">
         <v>0.43529411800000001</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53">
         <v>1.9349314999999999E-2</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53">
         <v>6.0233889999999998E-2</v>
       </c>
-      <c r="H53" s="4">
-        <v>1.0040160642570282</v>
-      </c>
-      <c r="I53" s="4">
-        <v>1.1961722488038278</v>
-      </c>
-      <c r="J53" s="4">
-        <v>1.4794694566472868</v>
-      </c>
-      <c r="K53" s="4">
-        <v>1.2885275042700677</v>
-      </c>
-      <c r="L53" s="4">
-        <v>1.1613888849555993</v>
-      </c>
-      <c r="M53" s="4">
-        <v>1.1992741041740458</v>
+      <c r="H53">
+        <v>1.0040160642570281E-2</v>
+      </c>
+      <c r="I53">
+        <v>1.1961722488038277E-2</v>
+      </c>
+      <c r="J53">
+        <v>1.4794694923488776E-2</v>
+      </c>
+      <c r="K53">
+        <v>1.1613888852483781E-2</v>
+      </c>
+      <c r="L53">
+        <v>1.2885275041735927E-2</v>
+      </c>
+      <c r="M53">
+        <v>1.200545499299442E-2</v>
       </c>
       <c r="N53">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>53</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54">
         <v>2</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54">
         <v>2</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54">
         <v>0.312236287</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54">
         <v>1.8511662E-4</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54">
         <v>1.9061320000000001E-3</v>
       </c>
-      <c r="H54" s="4">
-        <v>0.40160642570281119</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0.15948963317384371</v>
-      </c>
-      <c r="J54" s="4">
-        <v>1.0612228164164081</v>
-      </c>
-      <c r="K54" s="4">
-        <v>4.0776106420643138E-2</v>
-      </c>
-      <c r="L54" s="4">
-        <v>1.11111109043679E-2</v>
-      </c>
-      <c r="M54" s="4">
-        <v>0.46254153021131239</v>
+      <c r="H54">
+        <v>4.0160642570281121E-3</v>
+      </c>
+      <c r="I54">
+        <v>1.594896331738437E-3</v>
+      </c>
+      <c r="J54">
+        <v>1.0612228420251441E-2</v>
+      </c>
+      <c r="K54">
+        <v>1.1111110907168943E-4</v>
+      </c>
+      <c r="L54">
+        <v>4.0776106417590138E-4</v>
+      </c>
+      <c r="M54">
+        <v>4.6283818656868208E-3</v>
       </c>
       <c r="N54">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55">
         <v>56</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55">
         <v>18</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55">
         <v>56</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55">
         <v>0.52857142899999998</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55">
         <v>0.119829792</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55">
         <v>0.29456834599999998</v>
       </c>
-      <c r="H55" s="4">
-        <v>3.6144578313253009</v>
-      </c>
-      <c r="I55" s="4">
-        <v>4.4657097288676235</v>
-      </c>
-      <c r="J55" s="4">
-        <v>1.7964986259288482</v>
-      </c>
-      <c r="K55" s="4">
-        <v>6.3014262520375439</v>
-      </c>
-      <c r="L55" s="4">
-        <v>7.1924504053679099</v>
-      </c>
-      <c r="M55" s="4">
-        <v>3.6278955812848275</v>
+      <c r="H55">
+        <v>3.614457831325301E-2</v>
+      </c>
+      <c r="I55">
+        <v>4.4657097288676235E-2</v>
+      </c>
+      <c r="J55">
+        <v>1.7964986692807796E-2</v>
+      </c>
+      <c r="K55">
+        <v>7.1924504071810821E-2</v>
+      </c>
+      <c r="L55">
+        <v>6.3014262515657421E-2</v>
+      </c>
+      <c r="M55">
+        <v>3.6189853506344648E-2</v>
       </c>
       <c r="N55">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>57</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56">
         <v>2</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56">
         <v>2</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56">
         <v>0.35071089999999999</v>
       </c>
-      <c r="F56" s="4">
-        <v>0</v>
-      </c>
-      <c r="G56" s="4">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>9.5545809999999995E-3</v>
       </c>
-      <c r="H56" s="4">
-        <v>0.40160642570281119</v>
-      </c>
-      <c r="I56" s="4">
-        <v>0.15948963317384371</v>
-      </c>
-      <c r="J56" s="4">
-        <v>1.1919896070437619</v>
-      </c>
-      <c r="K56" s="4">
-        <v>0.20439225177514195</v>
-      </c>
-      <c r="L56" s="4">
-        <v>0</v>
-      </c>
-      <c r="M56" s="4">
-        <v>0.49642494488552114</v>
+      <c r="H56">
+        <v>4.0160642570281121E-3</v>
+      </c>
+      <c r="I56">
+        <v>1.594896331738437E-3</v>
+      </c>
+      <c r="J56">
+        <v>1.1919896358080766E-2</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>2.0439225175983866E-3</v>
+      </c>
+      <c r="M56">
+        <v>4.9846887459404519E-3</v>
       </c>
       <c r="N56">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57">
         <v>58</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57">
         <v>11</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57">
         <v>17</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57">
         <v>0.39572192499999997</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57">
         <v>2.8446695000000001E-2</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57">
         <v>0.113481076</v>
       </c>
-      <c r="H57" s="4">
-        <v>2.2088353413654618</v>
-      </c>
-      <c r="I57" s="4">
-        <v>1.3556618819776716</v>
-      </c>
-      <c r="J57" s="4">
-        <v>1.3449722317708146</v>
-      </c>
-      <c r="K57" s="4">
-        <v>2.4275949575921771</v>
-      </c>
-      <c r="L57" s="4">
-        <v>1.7074338490392047</v>
-      </c>
-      <c r="M57" s="4">
-        <v>1.6763903896502901</v>
+      <c r="H57">
+        <v>2.2088353413654619E-2</v>
+      </c>
+      <c r="I57">
+        <v>1.3556618819776715E-2</v>
+      </c>
+      <c r="J57">
+        <v>1.3449722642268061E-2</v>
+      </c>
+      <c r="K57">
+        <v>1.7074338494696382E-2</v>
+      </c>
+      <c r="L57">
+        <v>2.4275949574104179E-2</v>
+      </c>
+      <c r="M57">
+        <v>1.6835920088590958E-2</v>
       </c>
       <c r="N57">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58">
         <v>59</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58">
         <v>15</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58">
         <v>55</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58">
         <v>0.48366013099999999</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58">
         <v>4.4492611000000001E-2</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58">
         <v>0.35880012700000002</v>
       </c>
-      <c r="H58" s="4">
-        <v>3.0120481927710845</v>
-      </c>
-      <c r="I58" s="4">
-        <v>4.3859649122807012</v>
-      </c>
-      <c r="J58" s="4">
-        <v>1.6438549514526761</v>
-      </c>
-      <c r="K58" s="4">
-        <v>7.6754769146587298</v>
-      </c>
-      <c r="L58" s="4">
-        <v>2.6705453850977792</v>
-      </c>
-      <c r="M58" s="4">
-        <v>3.1838449091817926</v>
+      <c r="H58">
+        <v>3.0120481927710843E-2</v>
+      </c>
+      <c r="I58">
+        <v>4.3859649122807015E-2</v>
+      </c>
+      <c r="J58">
+        <v>1.6438549911211103E-2</v>
+      </c>
+      <c r="K58">
+        <v>2.670545385771007E-2</v>
+      </c>
+      <c r="L58">
+        <v>7.6754769140840493E-2</v>
+      </c>
+      <c r="M58">
+        <v>3.2338942344032139E-2</v>
       </c>
       <c r="N58">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59">
         <v>60</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59">
         <v>11</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59">
         <v>42</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59">
         <v>0.39153439200000001</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59">
         <v>1.1592359999999999E-3</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59">
         <v>0.31729359000000001</v>
       </c>
-      <c r="H59" s="4">
-        <v>2.2088353413654618</v>
-      </c>
-      <c r="I59" s="4">
-        <v>3.3492822966507179</v>
-      </c>
-      <c r="J59" s="4">
-        <v>1.330739723413781</v>
-      </c>
-      <c r="K59" s="4">
-        <v>6.7875662296356776</v>
-      </c>
-      <c r="L59" s="4">
-        <v>6.9579920810653451E-2</v>
-      </c>
-      <c r="M59" s="4">
-        <v>2.3486849632878912</v>
+      <c r="H59">
+        <v>2.2088353413654619E-2</v>
+      </c>
+      <c r="I59">
+        <v>3.3492822966507178E-2</v>
+      </c>
+      <c r="J59">
+        <v>1.330739755526323E-2</v>
+      </c>
+      <c r="K59">
+        <v>6.9579920828194116E-4</v>
+      </c>
+      <c r="L59">
+        <v>6.7875662291274771E-2</v>
+      </c>
+      <c r="M59">
+        <v>2.4158648343946387E-2</v>
       </c>
       <c r="N59">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60">
         <v>61</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60">
         <v>9</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60">
         <v>21.5</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60">
         <v>0.35922330099999999</v>
       </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
         <v>0.17575748099999999</v>
       </c>
-      <c r="H60" s="4">
-        <v>1.8072289156626504</v>
-      </c>
-      <c r="I60" s="4">
-        <v>1.7145135566188199</v>
-      </c>
-      <c r="J60" s="4">
-        <v>1.2209213953713816</v>
-      </c>
-      <c r="K60" s="4">
-        <v>3.7598160827687508</v>
-      </c>
-      <c r="L60" s="4">
-        <v>0</v>
-      </c>
-      <c r="M60" s="4">
-        <v>1.5754383749690473</v>
+      <c r="H60">
+        <v>1.8072289156626505E-2</v>
+      </c>
+      <c r="I60">
+        <v>1.7145135566188199E-2</v>
+      </c>
+      <c r="J60">
+        <v>1.220921424833859E-2</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>3.7598160824872447E-2</v>
+      </c>
+      <c r="M60">
+        <v>1.6130365431567241E-2</v>
       </c>
       <c r="N60">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61">
         <v>62</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61">
         <v>11</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61">
         <v>33</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61">
         <v>0.39153439200000001</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61">
         <v>1.1592359999999999E-3</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61">
         <v>0.26064115300000001</v>
       </c>
-      <c r="H61" s="4">
-        <v>2.2088353413654618</v>
-      </c>
-      <c r="I61" s="4">
-        <v>2.6315789473684208</v>
-      </c>
-      <c r="J61" s="4">
-        <v>1.330739723413781</v>
-      </c>
-      <c r="K61" s="4">
-        <v>5.575653413471434</v>
-      </c>
-      <c r="L61" s="4">
-        <v>6.9579920810653451E-2</v>
-      </c>
-      <c r="M61" s="4">
-        <v>2.085369662877445</v>
+      <c r="H61">
+        <v>2.2088353413654619E-2</v>
+      </c>
+      <c r="I61">
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="J61">
+        <v>1.330739755526323E-2</v>
+      </c>
+      <c r="K61">
+        <v>6.9579920828194116E-4</v>
+      </c>
+      <c r="L61">
+        <v>5.5756534130539721E-2</v>
+      </c>
+      <c r="M61">
+        <v>2.1404304058243648E-2</v>
       </c>
       <c r="N61">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62">
         <v>63</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62">
         <v>13</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62">
         <v>45.5</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62">
         <v>0.4</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62">
         <v>5.2948680000000003E-3</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62">
         <v>0.32460893600000001</v>
       </c>
-      <c r="H62" s="4">
-        <v>2.6104417670682731</v>
-      </c>
-      <c r="I62" s="4">
-        <v>3.6283891547049438</v>
-      </c>
-      <c r="J62" s="4">
-        <v>1.3595124725735777</v>
-      </c>
-      <c r="K62" s="4">
-        <v>6.9440566127779908</v>
-      </c>
-      <c r="L62" s="4">
-        <v>0.31780974378199356</v>
-      </c>
-      <c r="M62" s="4">
-        <v>2.60562189664308</v>
+      <c r="H62">
+        <v>2.6104417670682729E-2</v>
+      </c>
+      <c r="I62">
+        <v>3.6283891547049439E-2</v>
+      </c>
+      <c r="J62">
+        <v>1.3595125053804448E-2</v>
+      </c>
+      <c r="K62">
+        <v>3.1780974386211138E-3</v>
+      </c>
+      <c r="L62">
+        <v>6.9440566122580746E-2</v>
+      </c>
+      <c r="M62">
+        <v>2.6718843735267617E-2</v>
       </c>
       <c r="N62">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63">
         <v>64</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63">
         <v>12</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63">
         <v>37.5</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63">
         <v>0.39361702100000001</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63">
         <v>2.0433339999999999E-3</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63">
         <v>0.281327045</v>
       </c>
-      <c r="H63" s="4">
-        <v>2.4096385542168677</v>
-      </c>
-      <c r="I63" s="4">
-        <v>2.9904306220095696</v>
-      </c>
-      <c r="J63" s="4">
-        <v>1.3378181236668898</v>
-      </c>
-      <c r="K63" s="4">
-        <v>6.0181674332759023</v>
-      </c>
-      <c r="L63" s="4">
-        <v>0.12264544744100059</v>
-      </c>
-      <c r="M63" s="4">
-        <v>2.2895662348263746</v>
+      <c r="H63">
+        <v>2.4096385542168676E-2</v>
+      </c>
+      <c r="I63">
+        <v>2.9904306220095694E-2</v>
+      </c>
+      <c r="J63">
+        <v>1.337818155950243E-2</v>
+      </c>
+      <c r="K63">
+        <v>1.2264544747191874E-3</v>
+      </c>
+      <c r="L63">
+        <v>6.0181674328253082E-2</v>
+      </c>
+      <c r="M63">
+        <v>2.3485214627474774E-2</v>
       </c>
       <c r="N63">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64">
         <v>65</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64">
         <v>13</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64">
         <v>44</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64">
         <v>0.47741935499999999</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64">
         <v>3.2079000000000003E-2</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64">
         <v>0.32321307399999999</v>
       </c>
-      <c r="H64" s="4">
-        <v>2.6104417670682731</v>
-      </c>
-      <c r="I64" s="4">
-        <v>3.5087719298245612</v>
-      </c>
-      <c r="J64" s="4">
-        <v>1.6226439194263316</v>
-      </c>
-      <c r="K64" s="4">
-        <v>6.9141962371793788</v>
-      </c>
-      <c r="L64" s="4">
-        <v>1.925452866961475</v>
-      </c>
-      <c r="M64" s="4">
-        <v>2.6935458508193277</v>
+      <c r="H64">
+        <v>2.6104417670682729E-2</v>
+      </c>
+      <c r="I64">
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="J64">
+        <v>1.6226439585829151E-2</v>
+      </c>
+      <c r="K64">
+        <v>1.9254528674468696E-2</v>
+      </c>
+      <c r="L64">
+        <v>6.9141962366616988E-2</v>
+      </c>
+      <c r="M64">
+        <v>2.7434332943148603E-2</v>
       </c>
       <c r="N64">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65">
         <v>66</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65">
         <v>12</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65">
         <v>39</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65">
         <v>0.39361702100000001</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65">
         <v>2.0433339999999999E-3</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65">
         <v>0.29053073800000001</v>
       </c>
-      <c r="H65" s="4">
-        <v>2.4096385542168677</v>
-      </c>
-      <c r="I65" s="4">
-        <v>3.1100478468899522</v>
-      </c>
-      <c r="J65" s="4">
-        <v>1.3378181236668898</v>
-      </c>
-      <c r="K65" s="4">
-        <v>6.2150534648995928</v>
-      </c>
-      <c r="L65" s="4">
-        <v>0.12264544744100059</v>
-      </c>
-      <c r="M65" s="4">
-        <v>2.3334011238507455</v>
+      <c r="H65">
+        <v>2.4096385542168676E-2</v>
+      </c>
+      <c r="I65">
+        <v>3.1100478468899521E-2</v>
+      </c>
+      <c r="J65">
+        <v>1.337818155950243E-2</v>
+      </c>
+      <c r="K65">
+        <v>1.2264544747191874E-3</v>
+      </c>
+      <c r="L65">
+        <v>6.2150534644342573E-2</v>
+      </c>
+      <c r="M65">
+        <v>2.3943252120877903E-2</v>
       </c>
       <c r="N65">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66">
         <v>67</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66">
         <v>10</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66">
         <v>16</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66">
         <v>0.36097561</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="27">
         <v>1.5867139E-4</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66">
         <v>0.12458963100000001</v>
       </c>
-      <c r="H66" s="4">
-        <v>2.0080321285140563</v>
-      </c>
-      <c r="I66" s="4">
-        <v>1.2759170653907497</v>
-      </c>
-      <c r="J66" s="4">
-        <v>1.2268771102246387</v>
-      </c>
-      <c r="K66" s="4">
-        <v>2.6652299277094449</v>
-      </c>
-      <c r="L66" s="4">
-        <v>9.5238094323470898E-3</v>
-      </c>
-      <c r="M66" s="4">
-        <v>1.48313474707723</v>
+      <c r="H66">
+        <v>2.0080321285140562E-2</v>
+      </c>
+      <c r="I66">
+        <v>1.2759170653907496E-2</v>
+      </c>
+      <c r="J66">
+        <v>1.226877139830836E-2</v>
+      </c>
+      <c r="K66">
+        <v>9.5238094347479819E-5</v>
+      </c>
+      <c r="L66">
+        <v>2.6652299275098931E-2</v>
+      </c>
+      <c r="M66">
+        <v>1.5096918156576314E-2</v>
       </c>
       <c r="N66">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67">
         <v>68</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67">
         <v>2.5</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67">
         <v>0.284615385</v>
       </c>
-      <c r="F67" s="4">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4">
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
         <v>7.6343239999999996E-3</v>
       </c>
-      <c r="H67" s="4">
-        <v>0.20080321285140559</v>
-      </c>
-      <c r="I67" s="4">
-        <v>0.1993620414673046</v>
-      </c>
-      <c r="J67" s="4">
-        <v>0.96734541448457689</v>
-      </c>
-      <c r="K67" s="4">
-        <v>0.16331398238614639</v>
-      </c>
-      <c r="L67" s="4">
-        <v>0</v>
-      </c>
-      <c r="M67" s="4">
-        <v>0.38352733245655424</v>
+      <c r="H67">
+        <v>2.008032128514056E-3</v>
+      </c>
+      <c r="I67">
+        <v>1.9936204146730461E-3</v>
+      </c>
+      <c r="J67">
+        <v>9.6734543782792462E-3</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1.6331398237391871E-3</v>
+      </c>
+      <c r="M67">
+        <v>3.8516047811600809E-3</v>
       </c>
       <c r="N67">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68">
         <v>69</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68">
         <v>10</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68">
         <v>23.5</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68">
         <v>0.46835442999999999</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68">
         <v>5.1969989999999999E-3</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68">
         <v>4.5994436E-2</v>
       </c>
-      <c r="H68" s="4">
-        <v>2.0080321285140563</v>
-      </c>
-      <c r="I68" s="4">
-        <v>1.8740031897926632</v>
-      </c>
-      <c r="J68" s="4">
-        <v>1.5918342229252216</v>
-      </c>
-      <c r="K68" s="4">
-        <v>0.98391612810312179</v>
-      </c>
-      <c r="L68" s="4">
-        <v>0.31193542891442744</v>
-      </c>
-      <c r="M68" s="4">
-        <v>1.7789874955762655</v>
+      <c r="H68">
+        <v>2.0080321285140562E-2</v>
+      </c>
+      <c r="I68">
+        <v>1.8740031897926633E-2</v>
+      </c>
+      <c r="J68">
+        <v>1.5918342613383252E-2</v>
+      </c>
+      <c r="K68">
+        <v>3.1193542899306441E-3</v>
+      </c>
+      <c r="L68">
+        <v>9.8391612802945384E-3</v>
+      </c>
+      <c r="M68">
+        <v>1.785707312172314E-2</v>
       </c>
       <c r="N68">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69">
         <v>70</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69">
         <v>10</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69">
         <v>25</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69">
         <v>0.46835442999999999</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69">
         <v>5.1969989999999999E-3</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69">
         <v>4.9740438999999997E-2</v>
       </c>
-      <c r="H69" s="4">
-        <v>2.0080321285140563</v>
-      </c>
-      <c r="I69" s="4">
-        <v>1.9936204146730463</v>
-      </c>
-      <c r="J69" s="4">
-        <v>1.5918342229252216</v>
-      </c>
-      <c r="K69" s="4">
-        <v>1.0640508810898239</v>
-      </c>
-      <c r="L69" s="4">
-        <v>0.31193542891442744</v>
-      </c>
-      <c r="M69" s="4">
-        <v>1.8216548718142667</v>
+      <c r="H69">
+        <v>2.0080321285140562E-2</v>
+      </c>
+      <c r="I69">
+        <v>1.9936204146730464E-2</v>
+      </c>
+      <c r="J69">
+        <v>1.5918342613383252E-2</v>
+      </c>
+      <c r="K69">
+        <v>3.1193542899306441E-3</v>
+      </c>
+      <c r="L69">
+        <v>1.064050881010156E-2</v>
+      </c>
+      <c r="M69">
+        <v>1.8291760359400625E-2</v>
       </c>
       <c r="N69">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70">
         <v>71</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70">
         <v>10</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70">
         <v>22</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70">
         <v>0.45679012299999999</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70">
         <v>5.0929809999999999E-3</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70">
         <v>4.6556309999999997E-2</v>
       </c>
-      <c r="H70" s="4">
-        <v>2.0080321285140563</v>
-      </c>
-      <c r="I70" s="4">
-        <v>1.7543859649122806</v>
-      </c>
-      <c r="J70" s="4">
-        <v>1.5525296739172967</v>
-      </c>
-      <c r="K70" s="4">
-        <v>0.99593577523091392</v>
-      </c>
-      <c r="L70" s="4">
-        <v>0.30569203740236039</v>
-      </c>
-      <c r="M70" s="4">
-        <v>1.7271657904269457</v>
+      <c r="H70">
+        <v>2.0080321285140562E-2</v>
+      </c>
+      <c r="I70">
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="J70">
+        <v>1.5525297113819289E-2</v>
+      </c>
+      <c r="K70">
+        <v>3.0569203747942346E-3</v>
+      </c>
+      <c r="L70">
+        <v>9.9593577515634593E-3</v>
+      </c>
+      <c r="M70">
+        <v>1.7340682371722097E-2</v>
       </c>
       <c r="N70">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71">
         <v>72</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71">
         <v>9</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71">
         <v>13.5</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71">
         <v>0.46250000000000002</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71">
         <v>4.0505050000000003E-3</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71">
         <v>3.0148219E-2</v>
       </c>
-      <c r="H71" s="4">
-        <v>1.8072289156626504</v>
-      </c>
-      <c r="I71" s="4">
-        <v>1.0765550239234449</v>
-      </c>
-      <c r="J71" s="4">
-        <v>1.5719362964131993</v>
-      </c>
-      <c r="K71" s="4">
-        <v>0.64493276768705188</v>
-      </c>
-      <c r="L71" s="4">
-        <v>0.24312031125944666</v>
-      </c>
-      <c r="M71" s="4">
-        <v>1.4184825930856815</v>
+      <c r="H71">
+        <v>1.8072289156626505E-2</v>
+      </c>
+      <c r="I71">
+        <v>1.076555023923445E-2</v>
+      </c>
+      <c r="J71">
+        <v>1.5719363343461395E-2</v>
+      </c>
+      <c r="K71">
+        <v>2.4312031132073578E-3</v>
+      </c>
+      <c r="L71">
+        <v>6.4493276763876424E-3</v>
+      </c>
+      <c r="M71">
+        <v>1.4225007271340656E-2</v>
       </c>
       <c r="N71">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72">
         <v>73</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72">
         <v>3</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72">
         <v>4.5</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72">
         <v>0.40217391299999999</v>
       </c>
-      <c r="F72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="4">
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
         <v>1.2878608999999999E-2</v>
       </c>
-      <c r="H72" s="4">
-        <v>0.60240963855421692</v>
-      </c>
-      <c r="I72" s="4">
-        <v>0.35885167464114831</v>
-      </c>
-      <c r="J72" s="4">
-        <v>1.3669011271680525</v>
-      </c>
-      <c r="K72" s="4">
-        <v>0.27550008663295744</v>
-      </c>
-      <c r="L72" s="4">
-        <v>0</v>
-      </c>
-      <c r="M72" s="4">
-        <v>0.68092174227672053</v>
+      <c r="H72">
+        <v>6.024096385542169E-3</v>
+      </c>
+      <c r="I72">
+        <v>3.5885167464114833E-3</v>
+      </c>
+      <c r="J72">
+        <v>1.3669011601532177E-2</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>2.7550008661233016E-3</v>
+      </c>
+      <c r="M72">
+        <v>6.8367675138892884E-3</v>
       </c>
       <c r="N72">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73">
         <v>74</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73">
         <v>2</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73">
         <v>5</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73">
         <v>0.34418604699999999</v>
       </c>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4">
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
         <v>2.1506535E-2</v>
       </c>
-      <c r="H73" s="4">
-        <v>0.40160642570281119</v>
-      </c>
-      <c r="I73" s="4">
-        <v>0.3987240829346092</v>
-      </c>
-      <c r="J73" s="4">
-        <v>1.169813059455739</v>
-      </c>
-      <c r="K73" s="4">
-        <v>0.46006927112040841</v>
-      </c>
-      <c r="L73" s="4">
-        <v>0</v>
-      </c>
-      <c r="M73" s="4">
-        <v>0.57716963559823597</v>
+      <c r="H73">
+        <v>4.0160642570281121E-3</v>
+      </c>
+      <c r="I73">
+        <v>3.9872408293460922E-3</v>
+      </c>
+      <c r="J73">
+        <v>1.1698130876849039E-2</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>4.6006927108596203E-3</v>
+      </c>
+      <c r="M73">
+        <v>5.8177033536604235E-3</v>
       </c>
       <c r="N73">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74">
         <v>75</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74">
         <v>2</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74">
         <v>5</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74">
         <v>0.34418604699999999</v>
       </c>
-      <c r="F74" s="4">
-        <v>0</v>
-      </c>
-      <c r="G74" s="4">
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
         <v>2.1506535E-2</v>
       </c>
-      <c r="H74" s="4">
-        <v>0.40160642570281119</v>
-      </c>
-      <c r="I74" s="4">
-        <v>0.3987240829346092</v>
-      </c>
-      <c r="J74" s="4">
-        <v>1.169813059455739</v>
-      </c>
-      <c r="K74" s="4">
-        <v>0.46006927112040841</v>
-      </c>
-      <c r="L74" s="4">
-        <v>0</v>
-      </c>
-      <c r="M74" s="4">
-        <v>0.57716963559823597</v>
+      <c r="H74">
+        <v>4.0160642570281121E-3</v>
+      </c>
+      <c r="I74">
+        <v>3.9872408293460922E-3</v>
+      </c>
+      <c r="J74">
+        <v>1.1698130876849039E-2</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>4.6006927108596203E-3</v>
+      </c>
+      <c r="M74">
+        <v>5.8177033536604235E-3</v>
       </c>
       <c r="N74">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75">
         <v>76</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75">
         <v>7</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75">
         <v>11.5</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75">
         <v>0.38341968900000001</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="27">
         <v>4.6279155999999998E-4</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75">
         <v>2.4808255000000001E-2</v>
       </c>
-      <c r="H75" s="4">
-        <v>1.4056224899598393</v>
-      </c>
-      <c r="I75" s="4">
-        <v>0.91706539074960136</v>
-      </c>
-      <c r="J75" s="4">
-        <v>1.3031596235644556</v>
-      </c>
-      <c r="K75" s="4">
-        <v>0.53069989171287835</v>
-      </c>
-      <c r="L75" s="4">
-        <v>2.7777777861141974E-2</v>
-      </c>
-      <c r="M75" s="4">
-        <v>1.1451487741709925</v>
+      <c r="H75">
+        <v>1.4056224899598393E-2</v>
+      </c>
+      <c r="I75">
+        <v>9.1706539074960132E-3</v>
+      </c>
+      <c r="J75">
+        <v>1.3031596550114525E-2</v>
+      </c>
+      <c r="K75">
+        <v>2.7777777868144576E-4</v>
+      </c>
+      <c r="L75">
+        <v>5.3069989167314367E-3</v>
+      </c>
+      <c r="M75">
+        <v>1.1501780031706745E-2</v>
       </c>
       <c r="N75">
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76">
         <v>77</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76">
         <v>7</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76">
         <v>7</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76">
         <v>0.35576923100000002</v>
       </c>
-      <c r="F76" s="4">
-        <v>0</v>
-      </c>
-      <c r="G76" s="4">
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
         <v>5.3852791999999997E-2</v>
       </c>
-      <c r="H76" s="4">
-        <v>1.4056224899598393</v>
-      </c>
-      <c r="I76" s="4">
-        <v>0.55821371610845294</v>
-      </c>
-      <c r="J76" s="4">
-        <v>1.2091817672560259</v>
-      </c>
-      <c r="K76" s="4">
-        <v>1.1520226183919893</v>
-      </c>
-      <c r="L76" s="4">
-        <v>0</v>
-      </c>
-      <c r="M76" s="4">
-        <v>1.0011583401218285</v>
+      <c r="H76">
+        <v>1.4056224899598393E-2</v>
+      </c>
+      <c r="I76">
+        <v>5.5821371610845294E-3</v>
+      </c>
+      <c r="J76">
+        <v>1.2091817964352106E-2</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1.1520226183057347E-2</v>
+      </c>
+      <c r="M76">
+        <v>1.0126785735988197E-2</v>
       </c>
       <c r="N76">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N76" xr:uid="{7CC351D9-3F07-45BA-9AF1-8FB23D2C1782}">
+  <autoFilter ref="A1:N1" xr:uid="{81A297E2-0BE7-4768-85EF-8D090C98B56A}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N76">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6133,7 +6110,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6160,25 +6137,25 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -6186,9 +6163,9 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="27">
+        <v>14</v>
+      </c>
+      <c r="C3" s="23">
         <v>100</v>
       </c>
       <c r="D3">
@@ -6203,7 +6180,7 @@
       <c r="G3">
         <v>6.5</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="24">
         <f>SUM(C3:G3)</f>
         <v>153</v>
       </c>
@@ -6227,7 +6204,7 @@
         <f t="shared" si="0"/>
         <v>8.678237650200267E-3</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="23">
         <f>C3/$H$3</f>
         <v>0.65359477124183007</v>
       </c>
@@ -6257,12 +6234,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="23">
         <v>104.5</v>
       </c>
       <c r="E4">
@@ -6274,7 +6251,7 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="24">
         <f t="shared" ref="H4:H7" si="2">SUM(C4:G4)</f>
         <v>124.5</v>
       </c>
@@ -6302,7 +6279,7 @@
         <f>C4/$H$4</f>
         <v>7.2289156626506021E-2</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="23">
         <f>D4/$H$4</f>
         <v>0.8393574297188755</v>
       </c>
@@ -6328,7 +6305,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>21.5</v>
@@ -6336,7 +6313,7 @@
       <c r="D5">
         <v>9</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="23">
         <v>80.5</v>
       </c>
       <c r="F5">
@@ -6345,7 +6322,7 @@
       <c r="G5">
         <v>13.5</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="24">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
@@ -6377,7 +6354,7 @@
         <f>D5/$H$5</f>
         <v>6.3829787234042548E-2</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="23">
         <f>E5/$H$5</f>
         <v>0.57092198581560283</v>
       </c>
@@ -6399,7 +6376,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -6410,13 +6387,13 @@
       <c r="E6">
         <v>16.5</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="23">
         <v>31.5</v>
       </c>
       <c r="G6">
         <v>28</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="24">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
@@ -6452,7 +6429,7 @@
         <f t="shared" si="6"/>
         <v>0.17553191489361702</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="23">
         <f t="shared" si="6"/>
         <v>0.33510638297872342</v>
       </c>
@@ -6470,7 +6447,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>6.5</v>
@@ -6484,10 +6461,10 @@
       <c r="F7">
         <v>28</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="23">
         <v>188.5</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="24">
         <f t="shared" si="2"/>
         <v>236.5</v>
       </c>
@@ -6527,7 +6504,7 @@
         <f>F7/$H$7</f>
         <v>0.11839323467230443</v>
       </c>
-      <c r="T7" s="27">
+      <c r="T7" s="23">
         <f>G7/$H$7</f>
         <v>0.79704016913319242</v>
       </c>
@@ -6537,34 +6514,34 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="28">
+      <c r="C8" s="24">
         <f>SUM(C3:C7)</f>
         <v>153</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="24">
         <f t="shared" ref="D8:E8" si="8">SUM(D3:D7)</f>
         <v>124.5</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="24">
         <f t="shared" si="8"/>
         <v>141</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="24">
         <f>SUM(F3:F7)</f>
         <v>94</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="24">
         <f>SUM(G3:G7)</f>
         <v>236.5</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I11">
         <f>SUM(C3:G7)</f>
@@ -6573,7 +6550,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <f>C3/(C3+D4+E5+F6+G7)</f>
@@ -6582,7 +6559,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <f>D4/(C3+D4+E5+F6+G7)</f>
@@ -6591,26 +6568,26 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <f>E5/(C3+D4+E5+F6+G7)</f>
         <v>0.15940594059405941</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <f>SUM(C12:C16)</f>
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <f>F6/(C3+D4+E5+F6+G7)</f>
@@ -6639,7 +6616,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <f>G7/(C3+D4+E5+F6+G7)</f>
@@ -6712,7 +6689,7 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <f>C7/$C$8</f>
@@ -6737,15 +6714,15 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <f>(C4+C5+C6+C7)/($C$4+$C$5+$C$6+$C$7+$D$5+$D$6+$D$7+$E$6+$D$3+$E$3+$E$4+$E$7+$F$3+$F$4+$F$5+$F$7+$G$3+$G$4+$G$5+$G$6)</f>
@@ -6758,7 +6735,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <f>(D3+D5+D6+D7)/($C$4+$C$5+$C$6+$C$7+$D$5+$D$6+$D$7+$E$6+$D$3+$E$3+$E$4+$E$7+$F$3+$F$4+$F$5+$F$7+$G$3+$G$4+$G$5+$G$6)</f>
@@ -6771,7 +6748,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <f>(E3+E4+E6+E7)/($C$4+$C$5+$C$6+$C$7+$D$5+$D$6+$D$7+$E$6+$D$3+$E$3+$E$4+$E$7+$F$3+$F$4+$F$5+$F$7+$G$3+$G$4+$G$5+$G$6)</f>
@@ -6784,7 +6761,7 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <f>(F3+F4+F5+F7)/($C$4+$C$5+$C$6+$C$7+$D$5+$D$6+$D$7+$E$6+$D$3+$E$3+$E$4+$E$7+$F$3+$F$4+$F$5+$F$7+$G$3+$G$4+$G$5+$G$6)</f>
@@ -6797,7 +6774,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <f>(G3+G4+G5+G6)/($C$4+$C$5+$C$6+$C$7+$D$5+$D$6+$D$7+$E$6+$D$3+$E$3+$E$4+$E$7+$F$3+$F$4+$F$5+$F$7+$G$3+$G$4+$G$5+$G$6)</f>
@@ -6828,8 +6805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAF4B2D-15CB-45C1-84D6-F93C8D2891EC}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6849,43 +6826,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6893,7 +6870,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -6911,28 +6888,28 @@
         <v>0.95748369</v>
       </c>
       <c r="H2">
-        <f>C2/$C$7*100</f>
-        <v>17.857142857142858</v>
+        <f>C2/$C$7</f>
+        <v>0.17857142857142858</v>
       </c>
       <c r="I2">
-        <f>D2/$D$7*100</f>
-        <v>31.575433911882513</v>
+        <f>D2/$D$7</f>
+        <v>0.31575433911882511</v>
       </c>
       <c r="J2">
-        <f>E2/$E$7*100</f>
-        <v>17.39130434782609</v>
+        <f>E2/$E$7</f>
+        <v>0.17391304347826089</v>
       </c>
       <c r="K2">
-        <f>F2/$F$7*100</f>
+        <f>F2/$F$7</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>G2/$G$7*100</f>
-        <v>64.599737174106693</v>
+        <f>G2/$G$7</f>
+        <v>0.64599737174106686</v>
       </c>
       <c r="M2">
         <f>0.55*I2+0.3*L2+0.05*H2+0.05*J2+0.05*K2</f>
-        <v>38.508832164015843</v>
+        <v>0.38508832164015838</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6940,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -6958,28 +6935,28 @@
         <v>0.13493661200000001</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H6" si="0">C3/$C$7*100</f>
-        <v>21.428571428571427</v>
+        <f>C3/$C$7</f>
+        <v>0.21428571428571427</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I6" si="1">D3/$D$7*100</f>
-        <v>20.427236315086784</v>
+        <f>D3/$D$7</f>
+        <v>0.20427236315086783</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J6" si="2">E3/$E$7*100</f>
-        <v>21.739130434782609</v>
+        <f>E3/$E$7</f>
+        <v>0.21739130434782611</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K6" si="3">F3/$F$7*100</f>
-        <v>33.333333333333336</v>
+        <f>F3/$F$7</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L4" si="4">G3/$G$7*100</f>
-        <v>9.1039354104970833</v>
+        <f>G3/$G$7</f>
+        <v>9.1039354104970827E-2</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M6" si="5">0.55*I3+0.3*L3+0.05*H3+0.05*J3+0.05*K3</f>
-        <v>17.791212356281225</v>
+        <f>0.55*I3+0.3*L3+0.05*H3+0.05*J3+0.05*K3</f>
+        <v>0.17791212356281222</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -6987,7 +6964,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -7005,28 +6982,28 @@
         <v>0.165056377</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>21.428571428571427</v>
+        <f>C4/$C$7</f>
+        <v>0.21428571428571427</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
-        <v>18.825100133511349</v>
+        <f>D4/$D$7</f>
+        <v>0.18825100133511349</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
-        <v>21.739130434782609</v>
+        <f>E4/$E$7</f>
+        <v>0.21739130434782611</v>
       </c>
       <c r="K4">
-        <f t="shared" si="3"/>
-        <v>33.333333333333336</v>
+        <f>F4/$F$7</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="L4">
-        <f t="shared" si="4"/>
-        <v>11.136062874460315</v>
+        <f>G4/$G$7</f>
+        <v>0.11136062874460315</v>
       </c>
       <c r="M4">
-        <f t="shared" si="5"/>
-        <v>17.519675695603706</v>
+        <f>0.55*I4+0.3*L4+0.05*H4+0.05*J4+0.05*K4</f>
+        <v>0.17519675695603704</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -7034,7 +7011,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -7052,28 +7029,28 @@
         <v>0.191496362</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>21.428571428571427</v>
+        <f>C5/$C$7</f>
+        <v>0.21428571428571427</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
-        <v>12.550066755674234</v>
+        <f>D5/$D$7</f>
+        <v>0.12550066755674233</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
-        <v>21.739130434782609</v>
+        <f>E5/$E$7</f>
+        <v>0.21739130434782611</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
-        <v>33.333333333333336</v>
+        <f>F5/$F$7</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="L5">
-        <f>G5/$G$7*100</f>
-        <v>12.91992206676397</v>
+        <f>G5/$G$7</f>
+        <v>0.1291992206676397</v>
       </c>
       <c r="M5">
         <f>0.55*I5+0.3*L5+0.05*H5+0.05*J5+0.05*K5</f>
-        <v>14.603565095484388</v>
+        <v>0.14603565095484389</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -7081,7 +7058,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -7099,28 +7076,28 @@
         <v>3.3205883999999998E-2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>17.857142857142858</v>
+        <f>C6/$C$7</f>
+        <v>0.17857142857142858</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
-        <v>16.622162883845128</v>
+        <f>D6/$D$7</f>
+        <v>0.16622162883845126</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
-        <v>17.39130434782609</v>
+        <f>E6/$E$7</f>
+        <v>0.17391304347826089</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f>F6/$F$7</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>G6/$G$7*100</f>
-        <v>2.2403424741719355</v>
+        <f>G6/$G$7</f>
+        <v>2.2403424741719354E-2</v>
       </c>
       <c r="M6">
-        <f t="shared" si="5"/>
-        <v>11.576714688614848</v>
+        <f>0.55*I6+0.3*L6+0.05*H6+0.05*J6+0.05*K6</f>
+        <v>0.11576714688614848</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -7143,122 +7120,122 @@
       </c>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5</v>
+      </c>
+      <c r="G19" s="29">
+        <v>30.0530415852812</v>
+      </c>
+      <c r="H19" s="6">
+        <v>5</v>
+      </c>
+      <c r="I19" s="6">
+        <v>38.508832164015843</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
+        <v>25.498955582967099</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
+        <v>17.791212356281225</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="12">
+        <v>3</v>
+      </c>
+      <c r="G21" s="13">
+        <v>18.254343601062899</v>
+      </c>
+      <c r="H21" s="11">
+        <v>3</v>
+      </c>
+      <c r="I21" s="11">
+        <v>17.519675695603706</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E22" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F22" s="15">
+        <v>2</v>
+      </c>
+      <c r="G22" s="16">
+        <v>15.4557746842599</v>
+      </c>
+      <c r="H22" s="14">
+        <v>4</v>
+      </c>
+      <c r="I22" s="14">
+        <v>14.603565095484388</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="F23" s="18">
+        <v>4</v>
+      </c>
+      <c r="G23" s="19">
+        <v>10.7378839425387</v>
+      </c>
+      <c r="H23" s="17">
+        <v>2</v>
+      </c>
+      <c r="I23" s="17">
+        <v>11.576714688614848</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="10">
-        <v>5</v>
-      </c>
-      <c r="G19" s="11">
-        <v>29.60143811202763</v>
-      </c>
-      <c r="H19" s="9">
-        <v>5</v>
-      </c>
-      <c r="I19" s="9">
-        <v>38.508832164015843</v>
-      </c>
-    </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="13">
-        <v>1</v>
-      </c>
-      <c r="G20" s="14">
-        <v>25.881048115956695</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1</v>
-      </c>
-      <c r="I20" s="12">
-        <v>17.791212356281225</v>
-      </c>
-    </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="16">
-        <v>3</v>
-      </c>
-      <c r="G21" s="17">
-        <v>18.257349617610675</v>
-      </c>
-      <c r="H21" s="15">
-        <v>3</v>
-      </c>
-      <c r="I21" s="15">
-        <v>17.519675695603706</v>
-      </c>
-    </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="19">
-        <v>2</v>
-      </c>
-      <c r="G22" s="20">
-        <v>15.528098108200433</v>
-      </c>
-      <c r="H22" s="18">
-        <v>4</v>
-      </c>
-      <c r="I22" s="18">
-        <v>14.603565095484388</v>
-      </c>
-    </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="22">
-        <v>4</v>
-      </c>
-      <c r="G23" s="23">
-        <v>10.732065441987395</v>
-      </c>
-      <c r="H23" s="21">
-        <v>2</v>
-      </c>
-      <c r="I23" s="21">
-        <v>11.576714688614848</v>
-      </c>
-    </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -7268,34 +7245,34 @@
     </row>
     <row r="28" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>75</v>
+        <v>64</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="5:15" x14ac:dyDescent="0.25">
@@ -7307,237 +7284,241 @@
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.37326732673267327</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E36" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="9">
-        <v>0.37326732673267327</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J36" s="9">
+      <c r="J36" s="6">
         <v>0.25614754098360654</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O36" s="9">
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O36" s="6">
         <v>0.66489361702127658</v>
       </c>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="12">
+      <c r="E37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="8">
         <v>0.20693069306930692</v>
       </c>
-      <c r="I37" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J37" s="12">
+      <c r="I37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="8">
         <v>0.24795081967213115</v>
       </c>
-      <c r="N37" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O37" s="12">
+      <c r="N37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O37" s="8">
         <v>0.42907801418439717</v>
       </c>
     </row>
     <row r="38" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0.19801980198019803</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="22">
+        <v>0.21721311475409835</v>
+      </c>
+      <c r="N38" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O38" s="26">
+        <v>0.34640522875816998</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E39" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="21">
+        <v>0.15940594059405941</v>
+      </c>
+      <c r="I39" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="15">
-        <v>0.19801980198019803</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="26" t="s">
+      <c r="J39" s="21">
+        <v>0.19672131147540983</v>
+      </c>
+      <c r="N39" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J38" s="26">
-        <v>0.21721311475409835</v>
-      </c>
-      <c r="N38" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="O38" s="30">
-        <v>0.34640522875816998</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E39" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="25">
-        <v>0.15940594059405941</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="J39" s="25">
-        <v>0.19672131147540983</v>
-      </c>
-      <c r="N39" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="O39" s="25">
+      <c r="O39" s="21">
         <v>0.20295983086680761</v>
       </c>
     </row>
     <row r="40" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E40" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="21">
+      <c r="E40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="17">
         <v>6.2376237623762376E-2</v>
       </c>
-      <c r="I40" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J40" s="21">
+      <c r="I40" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="17">
         <v>8.1967213114754092E-2</v>
       </c>
-      <c r="N40" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="O40" s="21">
+      <c r="N40" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40" s="17">
         <v>0.1606425702811245</v>
       </c>
     </row>
     <row r="42" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="I42" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
+      <c r="I42" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
     </row>
     <row r="43" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
     </row>
     <row r="44" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
     </row>
     <row r="46" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" s="4">
+        <v>47.540642293634562</v>
+      </c>
+      <c r="M47" t="s">
+        <v>76</v>
+      </c>
+      <c r="N47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K48" s="3">
+        <v>5</v>
+      </c>
+      <c r="L48" s="4">
+        <v>18.877594059232372</v>
+      </c>
+      <c r="M48" t="s">
+        <v>80</v>
+      </c>
+      <c r="N48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K49" s="3">
+        <v>3</v>
+      </c>
+      <c r="L49" s="4">
+        <v>11.753395653234241</v>
+      </c>
+      <c r="M49" t="s">
+        <v>78</v>
+      </c>
+      <c r="N49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K50" s="3">
+        <v>2</v>
+      </c>
+      <c r="L50" s="4">
+        <v>11.012713174241725</v>
+      </c>
+      <c r="M50" t="s">
+        <v>77</v>
+      </c>
+      <c r="N50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K51" s="3">
+        <v>4</v>
+      </c>
+      <c r="L51" s="4">
+        <v>10.815654794447774</v>
+      </c>
+      <c r="M51" t="s">
+        <v>79</v>
+      </c>
+      <c r="N51" t="s">
         <v>83</v>
-      </c>
-      <c r="L46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="K47" s="6">
-        <v>1</v>
-      </c>
-      <c r="L47" s="7">
-        <v>47.540642293634562</v>
-      </c>
-      <c r="M47" t="s">
-        <v>85</v>
-      </c>
-      <c r="N47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="K48" s="6">
-        <v>5</v>
-      </c>
-      <c r="L48" s="7">
-        <v>18.877594059232372</v>
-      </c>
-      <c r="M48" t="s">
-        <v>89</v>
-      </c>
-      <c r="N48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K49" s="6">
-        <v>3</v>
-      </c>
-      <c r="L49" s="7">
-        <v>11.753395653234241</v>
-      </c>
-      <c r="M49" t="s">
-        <v>87</v>
-      </c>
-      <c r="N49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K50" s="6">
-        <v>2</v>
-      </c>
-      <c r="L50" s="7">
-        <v>11.012713174241725</v>
-      </c>
-      <c r="M50" t="s">
-        <v>86</v>
-      </c>
-      <c r="N50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K51" s="6">
-        <v>4</v>
-      </c>
-      <c r="L51" s="7">
-        <v>10.815654794447774</v>
-      </c>
-      <c r="M51" t="s">
-        <v>88</v>
-      </c>
-      <c r="N51" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="53" spans="11:14" x14ac:dyDescent="0.25">
       <c r="N53" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{D9DED1D3-364E-4EBD-A2B3-6DC5ECE33572}"/>
+  <autoFilter ref="A1:M1" xr:uid="{D9DED1D3-364E-4EBD-A2B3-6DC5ECE33572}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M7">
+      <sortCondition descending="1" ref="M1"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="I42:O44"/>
   </mergeCells>
